--- a/PythonResources/Data/Consumption/Sympheny/post_CD_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_CD_coo.xlsx
@@ -471,7 +471,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>144.5590482459406</v>
+        <v>144.5590482459405</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -511,7 +511,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>9.682598203708991</v>
+        <v>9.68259820370899</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -535,7 +535,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.5940520646561603</v>
+        <v>0.5940520646561602</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>4.222567525032663</v>
+        <v>4.222567525032662</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>124.9221163714758</v>
+        <v>124.9221163714757</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -927,7 +927,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>52.12669929914993</v>
+        <v>52.12669929914992</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>83.41593052106273</v>
+        <v>83.41593052106272</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>85.43867752279948</v>
+        <v>85.43867752279945</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>16.96160359094083</v>
+        <v>16.96160359094082</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>17.22542613994377</v>
+        <v>17.22542613994376</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>15.64811780986841</v>
+        <v>15.6481178098684</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>12.39986495286539</v>
+        <v>12.39986495286538</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>39.21993867781588</v>
+        <v>39.21993867781587</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>11.27801539326324</v>
+        <v>11.27801539326323</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>4.222274453994002</v>
+        <v>4.222274453994001</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>33.79589712268717</v>
+        <v>33.79589712268716</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>110.1186292950294</v>
+        <v>110.1186292950293</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>6.632051069386914</v>
+        <v>6.632051069386913</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>0.7738658004268287</v>
+        <v>0.7738658004268286</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>118.0670382416676</v>
+        <v>118.0670382416675</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>28.44855225837612</v>
+        <v>28.44855225837611</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>242.6153425033308</v>
+        <v>242.6153425033307</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>240.0029072647036</v>
+        <v>240.0029072647035</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>114.7724801605561</v>
+        <v>114.772480160556</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>31.01462365868713</v>
+        <v>31.01462365868712</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>5.338523426047334</v>
+        <v>5.338523426047333</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>8.879056029907314</v>
+        <v>8.879056029907312</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>9.073860349305511</v>
+        <v>9.073860349305509</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>8.414390725825598</v>
+        <v>8.414390725825596</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>7.361563498822735</v>
+        <v>7.361563498822734</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>4.673557255237326</v>
+        <v>4.673557255237325</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>5.736103597095315</v>
+        <v>5.736103597095314</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>0.6708337460750462</v>
+        <v>0.6708337460750461</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>5.135161432320227</v>
+        <v>5.135161432320226</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>7.752403035981504</v>
+        <v>7.752403035981503</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>16.02676559181887</v>
+        <v>16.02676559181886</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>9.786726343745366</v>
+        <v>9.786726343745364</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>42.49748545048829</v>
+        <v>42.49748545048828</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>5.328617624940581</v>
+        <v>5.32861762494058</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>55.92226232085301</v>
+        <v>55.922262320853</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>43.92800768549493</v>
+        <v>43.92800768549492</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>6.760621334047646</v>
+        <v>6.760621334047645</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>6.503304962102985</v>
+        <v>6.503304962102984</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>5.154943727429868</v>
+        <v>5.154943727429867</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>9.135610417151456</v>
+        <v>9.135610417151454</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>8.65922344380744</v>
+        <v>8.659223443807438</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>7.456137522998751</v>
+        <v>7.45613752299875</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>15.70916450722157</v>
+        <v>15.70916450722156</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>933</v>
       </c>
       <c r="B933">
-        <v>6.335902784819624</v>
+        <v>6.335902784819623</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>954</v>
       </c>
       <c r="B954">
-        <v>18.02515839024285</v>
+        <v>18.02515839024284</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>982</v>
       </c>
       <c r="B982">
-        <v>2.011824244125831</v>
+        <v>2.01182424412583</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>2.039953202416547</v>
+        <v>2.039953202416546</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>0.6950677902619529</v>
+        <v>0.6950677902619528</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>996</v>
       </c>
       <c r="B996">
-        <v>3.177804440729607</v>
+        <v>3.177804440729606</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>58.7642307969598</v>
+        <v>58.76423079695979</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>6.935819200959398</v>
+        <v>6.935819200959397</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>7.725381886216928</v>
+        <v>7.725381886216927</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>6.392260345554201</v>
+        <v>6.3922603455542</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>7.064427564855156</v>
+        <v>7.064427564855155</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>1049</v>
       </c>
       <c r="B1049">
-        <v>20.08301530241122</v>
+        <v>20.08301530241121</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>47.1255006386018</v>
+        <v>47.12550063860179</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>63.21641948078363</v>
+        <v>63.21641948078362</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>8.128618328311074</v>
+        <v>8.128618328311072</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9143,7 +9143,7 @@
         <v>1100</v>
       </c>
       <c r="B1100">
-        <v>4.219988499892444</v>
+        <v>4.219988499892443</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>6.033687929752045</v>
+        <v>6.033687929752044</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>1119</v>
       </c>
       <c r="B1119">
-        <v>5.462990696166807</v>
+        <v>5.462990696166806</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9695,7 +9695,7 @@
         <v>1169</v>
       </c>
       <c r="B1169">
-        <v>3.672649028088515</v>
+        <v>3.672649028088514</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>31.20327348627344</v>
+        <v>31.20327348627343</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>58.48622360968566</v>
+        <v>58.48622360968565</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>37.40339645888126</v>
+        <v>37.40339645888125</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10351,7 +10351,7 @@
         <v>1251</v>
       </c>
       <c r="B1251">
-        <v>7.802547490696461</v>
+        <v>7.80254749069646</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>6.554686176601091</v>
+        <v>6.55468617660109</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>19.4399148687247</v>
+        <v>19.43991486872469</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>22.67648884483706</v>
+        <v>22.67648884483705</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>1286</v>
       </c>
       <c r="B1286">
-        <v>32.13758395752581</v>
+        <v>32.1375839575258</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>1290</v>
       </c>
       <c r="B1290">
-        <v>26.33712196034046</v>
+        <v>26.33712196034045</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>1302</v>
       </c>
       <c r="B1302">
-        <v>7.644377051130933</v>
+        <v>7.644377051130932</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>8.276446290922243</v>
+        <v>8.276446290922241</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>64.99216621113659</v>
+        <v>64.99216621113658</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10911,7 +10911,7 @@
         <v>1321</v>
       </c>
       <c r="B1321">
-        <v>7.476151344228933</v>
+        <v>7.476151344228932</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>33.50666531463228</v>
+        <v>33.50666531463227</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>4.225791306457938</v>
+        <v>4.225791306457937</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11383,7 +11383,7 @@
         <v>1380</v>
       </c>
       <c r="B1380">
-        <v>38.17089968705876</v>
+        <v>38.17089968705874</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -11439,7 +11439,7 @@
         <v>1387</v>
       </c>
       <c r="B1387">
-        <v>136.4260338520496</v>
+        <v>136.4260338520495</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>1397</v>
       </c>
       <c r="B1397">
-        <v>22.43282958329402</v>
+        <v>22.43282958329401</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11567,7 +11567,7 @@
         <v>1403</v>
       </c>
       <c r="B1403">
-        <v>72.14559065830204</v>
+        <v>72.14559065830203</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11583,7 +11583,7 @@
         <v>1405</v>
       </c>
       <c r="B1405">
-        <v>76.86725816217498</v>
+        <v>76.86725816217496</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>94.58135095198267</v>
+        <v>94.58135095198266</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>5.876572545925698</v>
+        <v>5.876572545925697</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11943,7 +11943,7 @@
         <v>1450</v>
       </c>
       <c r="B1450">
-        <v>6.47437885058711</v>
+        <v>6.474378850587109</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>4.221043555631624</v>
+        <v>4.221043555631623</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>32.66303395345212</v>
+        <v>32.66303395345211</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>19.40876346881226</v>
+        <v>19.40876346881225</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12367,7 +12367,7 @@
         <v>1503</v>
       </c>
       <c r="B1503">
-        <v>49.23851645095662</v>
+        <v>49.23851645095661</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -12567,7 +12567,7 @@
         <v>1528</v>
       </c>
       <c r="B1528">
-        <v>90.76486265811917</v>
+        <v>90.76486265811914</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>33.96705060926539</v>
+        <v>33.96705060926538</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>37.71742207680689</v>
+        <v>37.71742207680688</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12719,7 +12719,7 @@
         <v>1547</v>
       </c>
       <c r="B1547">
-        <v>53.29833869751026</v>
+        <v>53.29833869751025</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12967,7 +12967,7 @@
         <v>1578</v>
       </c>
       <c r="B1578">
-        <v>159.4924830209294</v>
+        <v>159.4924830209293</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13007,7 +13007,7 @@
         <v>1583</v>
       </c>
       <c r="B1583">
-        <v>87.58556941651315</v>
+        <v>87.58556941651314</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>6.950941666554323</v>
+        <v>6.950941666554322</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>7.279151922751164</v>
+        <v>7.279151922751163</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>7.589469605895652</v>
+        <v>7.589469605895651</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>5.722768864836224</v>
+        <v>5.722768864836223</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>0.2240290703024669</v>
+        <v>0.2240290703024668</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13479,7 +13479,7 @@
         <v>1642</v>
       </c>
       <c r="B1642">
-        <v>8.429379551026893</v>
+        <v>8.429379551026891</v>
       </c>
     </row>
     <row r="1643" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>21.4831621896158</v>
+        <v>21.48316218961579</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13671,7 +13671,7 @@
         <v>1666</v>
       </c>
       <c r="B1666">
-        <v>37.1392280860527</v>
+        <v>37.13922808605269</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>45.15142394425555</v>
+        <v>45.15142394425554</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>8.886001813523588</v>
+        <v>8.886001813523587</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>6.233708913638413</v>
+        <v>6.233708913638412</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>58.21492774919685</v>
+        <v>58.21492774919683</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14127,7 +14127,7 @@
         <v>1723</v>
       </c>
       <c r="B1723">
-        <v>30.12442037875329</v>
+        <v>30.12442037875328</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14159,7 +14159,7 @@
         <v>1727</v>
       </c>
       <c r="B1727">
-        <v>0.1451607230883123</v>
+        <v>0.1451607230883122</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>72.06467374452764</v>
+        <v>72.06467374452762</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14527,7 +14527,7 @@
         <v>1773</v>
       </c>
       <c r="B1773">
-        <v>7.370075454069615</v>
+        <v>7.370075454069614</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>0.6355860922552462</v>
+        <v>0.6355860922552461</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>19.39186587193617</v>
+        <v>19.39186587193616</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -14863,7 +14863,7 @@
         <v>1815</v>
       </c>
       <c r="B1815">
-        <v>0.4697928749741365</v>
+        <v>0.4697928749741364</v>
       </c>
     </row>
     <row r="1816" spans="1:2">
@@ -15103,7 +15103,7 @@
         <v>1845</v>
       </c>
       <c r="B1845">
-        <v>9.285311103699671</v>
+        <v>9.285311103699669</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>90.72975274768754</v>
+        <v>90.72975274768753</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15271,7 +15271,7 @@
         <v>1866</v>
       </c>
       <c r="B1866">
-        <v>223.036878301079</v>
+        <v>223.0368783010789</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -15303,7 +15303,7 @@
         <v>1870</v>
       </c>
       <c r="B1870">
-        <v>26.79621774240346</v>
+        <v>26.79621774240345</v>
       </c>
     </row>
     <row r="1871" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>0.2323001211555674</v>
+        <v>0.2323001211555673</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>90.51223542279308</v>
+        <v>90.51223542279307</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -15823,7 +15823,7 @@
         <v>1935</v>
       </c>
       <c r="B1935">
-        <v>156.4448372898901</v>
+        <v>156.44483728989</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>6.222191221819022</v>
+        <v>6.222191221819021</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>22.34602194164253</v>
+        <v>22.34602194164252</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>7.307521199293582</v>
+        <v>7.307521199293581</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>17.46729766815098</v>
+        <v>17.46729766815097</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17383,7 +17383,7 @@
         <v>2130</v>
       </c>
       <c r="B2130">
-        <v>302.0460461493104</v>
+        <v>302.0460461493103</v>
       </c>
     </row>
     <row r="2131" spans="1:2">
@@ -17503,7 +17503,7 @@
         <v>2145</v>
       </c>
       <c r="B2145">
-        <v>2.124448513573</v>
+        <v>2.124448513572999</v>
       </c>
     </row>
     <row r="2146" spans="1:2">
@@ -17511,7 +17511,7 @@
         <v>2146</v>
       </c>
       <c r="B2146">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>8.305721156974124</v>
+        <v>8.305721156974123</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>33.72519080389974</v>
+        <v>33.72519080389972</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>42.40580257210867</v>
+        <v>42.40580257210866</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>20.74239583229538</v>
+        <v>20.74239583229537</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -17879,7 +17879,7 @@
         <v>2192</v>
       </c>
       <c r="B2192">
-        <v>45.62474246382478</v>
+        <v>45.62474246382477</v>
       </c>
     </row>
     <row r="2193" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>210.8540617594462</v>
+        <v>210.8540617594461</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -18151,7 +18151,7 @@
         <v>2226</v>
       </c>
       <c r="B2226">
-        <v>355.0309453709723</v>
+        <v>355.0309453709722</v>
       </c>
     </row>
     <row r="2227" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>31.08261613965656</v>
+        <v>31.08261613965655</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>9.707333399372009</v>
+        <v>9.707333399372008</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18559,7 +18559,7 @@
         <v>2277</v>
       </c>
       <c r="B2277">
-        <v>85.51118329776429</v>
+        <v>85.51118329776428</v>
       </c>
     </row>
     <row r="2278" spans="1:2">
@@ -18815,7 +18815,7 @@
         <v>2309</v>
       </c>
       <c r="B2309">
-        <v>85.42727705939555</v>
+        <v>85.42727705939554</v>
       </c>
     </row>
     <row r="2310" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>6.223521764334545</v>
+        <v>6.223521764334544</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19063,7 +19063,7 @@
         <v>2340</v>
       </c>
       <c r="B2340">
-        <v>99.65775164105129</v>
+        <v>99.65775164105128</v>
       </c>
     </row>
     <row r="2341" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>94.02220071732069</v>
+        <v>94.02220071732067</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19215,7 +19215,7 @@
         <v>2359</v>
       </c>
       <c r="B2359">
-        <v>6.774131908929934</v>
+        <v>6.774131908929933</v>
       </c>
     </row>
     <row r="2360" spans="1:2">
@@ -19239,7 +19239,7 @@
         <v>2362</v>
       </c>
       <c r="B2362">
-        <v>30.26752696693163</v>
+        <v>30.26752696693162</v>
       </c>
     </row>
     <row r="2363" spans="1:2">
@@ -19271,7 +19271,7 @@
         <v>2366</v>
       </c>
       <c r="B2366">
-        <v>31.19325045675122</v>
+        <v>31.19325045675121</v>
       </c>
     </row>
     <row r="2367" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>41.81953740494974</v>
+        <v>41.81953740494973</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>51.07123326051496</v>
+        <v>51.07123326051495</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>96.86478464260867</v>
+        <v>96.86478464260865</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>54.37300088917754</v>
+        <v>54.37300088917753</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -20095,7 +20095,7 @@
         <v>2469</v>
       </c>
       <c r="B2469">
-        <v>58.39563535163543</v>
+        <v>58.39563535163542</v>
       </c>
     </row>
     <row r="2470" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>76.53081260979175</v>
+        <v>76.53081260979174</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20231,7 +20231,7 @@
         <v>2486</v>
       </c>
       <c r="B2486">
-        <v>88.55689475994845</v>
+        <v>88.55689475994843</v>
       </c>
     </row>
     <row r="2487" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>53.67557973847513</v>
+        <v>53.67557973847512</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>140.5299076064244</v>
+        <v>140.5299076064243</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20671,7 +20671,7 @@
         <v>2541</v>
       </c>
       <c r="B2541">
-        <v>124.7536298313494</v>
+        <v>124.7536298313493</v>
       </c>
     </row>
     <row r="2542" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>13.54360105763477</v>
+        <v>13.54360105763476</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>13.23951640934053</v>
+        <v>13.23951640934052</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>18.65490738662108</v>
+        <v>18.65490738662107</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21079,7 +21079,7 @@
         <v>2592</v>
       </c>
       <c r="B2592">
-        <v>5.77845236218188</v>
+        <v>5.778452362181879</v>
       </c>
     </row>
     <row r="2593" spans="1:2">
@@ -21151,7 +21151,7 @@
         <v>2601</v>
       </c>
       <c r="B2601">
-        <v>45.88317250571636</v>
+        <v>45.88317250571635</v>
       </c>
     </row>
     <row r="2602" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>62.01898983102111</v>
+        <v>62.0189898310211</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21255,7 +21255,7 @@
         <v>2614</v>
       </c>
       <c r="B2614">
-        <v>52.39315948750082</v>
+        <v>52.39315948750081</v>
       </c>
     </row>
     <row r="2615" spans="1:2">
@@ -21263,7 +21263,7 @@
         <v>2615</v>
       </c>
       <c r="B2615">
-        <v>21.93425713232334</v>
+        <v>21.93425713232333</v>
       </c>
     </row>
     <row r="2616" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>66.62211009975553</v>
+        <v>66.62211009975552</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21375,7 +21375,7 @@
         <v>2629</v>
       </c>
       <c r="B2629">
-        <v>102.6818344605823</v>
+        <v>102.6818344605822</v>
       </c>
     </row>
     <row r="2630" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>4.22479486492649</v>
+        <v>4.224794864926489</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21551,7 +21551,7 @@
         <v>2651</v>
       </c>
       <c r="B2651">
-        <v>16.21142965327938</v>
+        <v>16.21142965327937</v>
       </c>
     </row>
     <row r="2652" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>0.2849093033056655</v>
+        <v>0.2849093033056654</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>63.20751012120833</v>
+        <v>63.20751012120832</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>24.41709635765452</v>
+        <v>24.41709635765451</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -22015,7 +22015,7 @@
         <v>2709</v>
       </c>
       <c r="B2709">
-        <v>6.857771452653495</v>
+        <v>6.857771452653494</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>212.1550041000639</v>
+        <v>212.1550041000638</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>157.5365269089036</v>
+        <v>157.5365269089035</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22375,7 +22375,7 @@
         <v>2754</v>
       </c>
       <c r="B2754">
-        <v>289.4460429841432</v>
+        <v>289.4460429841431</v>
       </c>
     </row>
     <row r="2755" spans="1:2">
@@ -22727,7 +22727,7 @@
         <v>2798</v>
       </c>
       <c r="B2798">
-        <v>82.11264361213573</v>
+        <v>82.11264361213571</v>
       </c>
     </row>
     <row r="2799" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>17.76049472735895</v>
+        <v>17.76049472735894</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -22911,7 +22911,7 @@
         <v>2821</v>
       </c>
       <c r="B2821">
-        <v>59.16652941173024</v>
+        <v>59.16652941173022</v>
       </c>
     </row>
     <row r="2822" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>7.431827280341792</v>
+        <v>7.431827280341791</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>0.4734767779301096</v>
+        <v>0.4734767779301095</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23071,7 +23071,7 @@
         <v>2841</v>
       </c>
       <c r="B2841">
-        <v>27.47004667449362</v>
+        <v>27.47004667449361</v>
       </c>
     </row>
     <row r="2842" spans="1:2">
@@ -23159,7 +23159,7 @@
         <v>2852</v>
       </c>
       <c r="B2852">
-        <v>156.340210929088</v>
+        <v>156.3402109290879</v>
       </c>
     </row>
     <row r="2853" spans="1:2">
@@ -23207,7 +23207,7 @@
         <v>2858</v>
       </c>
       <c r="B2858">
-        <v>4.224179415745301</v>
+        <v>4.2241794157453</v>
       </c>
     </row>
     <row r="2859" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>20.77220408763763</v>
+        <v>20.77220408763762</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>82.06018389621535</v>
+        <v>82.06018389621534</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>157.7331775758454</v>
+        <v>157.7331775758453</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23343,7 +23343,7 @@
         <v>2875</v>
       </c>
       <c r="B2875">
-        <v>306.2592354011059</v>
+        <v>306.2592354011058</v>
       </c>
     </row>
     <row r="2876" spans="1:2">
@@ -23383,7 +23383,7 @@
         <v>2880</v>
       </c>
       <c r="B2880">
-        <v>45.60821325724428</v>
+        <v>45.60821325724427</v>
       </c>
     </row>
     <row r="2881" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>9.526743025348887</v>
+        <v>9.526743025348884</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>31.03487486745863</v>
+        <v>31.03487486745862</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>44.27837411221456</v>
+        <v>44.27837411221455</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>66.11653325096084</v>
+        <v>66.11653325096083</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23687,7 +23687,7 @@
         <v>2918</v>
       </c>
       <c r="B2918">
-        <v>440.8998804856305</v>
+        <v>440.8998804856304</v>
       </c>
     </row>
     <row r="2919" spans="1:2">
@@ -23695,7 +23695,7 @@
         <v>2919</v>
       </c>
       <c r="B2919">
-        <v>417.7487337865775</v>
+        <v>417.7487337865774</v>
       </c>
     </row>
     <row r="2920" spans="1:2">
@@ -24119,7 +24119,7 @@
         <v>2972</v>
       </c>
       <c r="B2972">
-        <v>88.77329841489599</v>
+        <v>88.77329841489598</v>
       </c>
     </row>
     <row r="2973" spans="1:2">
@@ -24207,7 +24207,7 @@
         <v>2983</v>
       </c>
       <c r="B2983">
-        <v>13.13298508678713</v>
+        <v>13.13298508678712</v>
       </c>
     </row>
     <row r="2984" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>34.96270084890958</v>
+        <v>34.96270084890957</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24575,7 +24575,7 @@
         <v>3029</v>
       </c>
       <c r="B3029">
-        <v>45.12438227951827</v>
+        <v>45.12438227951826</v>
       </c>
     </row>
     <row r="3030" spans="1:2">
@@ -24607,7 +24607,7 @@
         <v>3033</v>
       </c>
       <c r="B3033">
-        <v>245.7611670323217</v>
+        <v>245.7611670323216</v>
       </c>
     </row>
     <row r="3034" spans="1:2">
@@ -24631,7 +24631,7 @@
         <v>3036</v>
       </c>
       <c r="B3036">
-        <v>255.9670728826644</v>
+        <v>255.9670728826643</v>
       </c>
     </row>
     <row r="3037" spans="1:2">
@@ -24655,7 +24655,7 @@
         <v>3039</v>
       </c>
       <c r="B3039">
-        <v>333.5588026524102</v>
+        <v>333.5588026524101</v>
       </c>
     </row>
     <row r="3040" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>3043</v>
       </c>
       <c r="B3043">
-        <v>401.5811768677858</v>
+        <v>401.5811768677856</v>
       </c>
     </row>
     <row r="3044" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>76.83912334246349</v>
+        <v>76.83912334246347</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -24863,7 +24863,7 @@
         <v>3065</v>
       </c>
       <c r="B3065">
-        <v>260.7230296980607</v>
+        <v>260.7230296980606</v>
       </c>
     </row>
     <row r="3066" spans="1:2">
@@ -24903,7 +24903,7 @@
         <v>3070</v>
       </c>
       <c r="B3070">
-        <v>182.9794891302883</v>
+        <v>182.9794891302882</v>
       </c>
     </row>
     <row r="3071" spans="1:2">
@@ -24943,7 +24943,7 @@
         <v>3075</v>
       </c>
       <c r="B3075">
-        <v>53.8555253562132</v>
+        <v>53.85552535621319</v>
       </c>
     </row>
     <row r="3076" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>52.6679428933497</v>
+        <v>52.66794289334969</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -25127,7 +25127,7 @@
         <v>3098</v>
       </c>
       <c r="B3098">
-        <v>93.75078762841642</v>
+        <v>93.7507876284164</v>
       </c>
     </row>
     <row r="3099" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>242.0429747648252</v>
+        <v>242.0429747648251</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25295,7 +25295,7 @@
         <v>3119</v>
       </c>
       <c r="B3119">
-        <v>152.0648906170963</v>
+        <v>152.0648906170962</v>
       </c>
     </row>
     <row r="3120" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>83.64774971264386</v>
+        <v>83.64774971264384</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>231.4719024003105</v>
+        <v>231.4719024003104</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25511,7 +25511,7 @@
         <v>3146</v>
       </c>
       <c r="B3146">
-        <v>43.84052598045452</v>
+        <v>43.84052598045451</v>
       </c>
     </row>
     <row r="3147" spans="1:2">
@@ -25527,7 +25527,7 @@
         <v>3148</v>
       </c>
       <c r="B3148">
-        <v>39.48212002900232</v>
+        <v>39.48212002900231</v>
       </c>
     </row>
     <row r="3149" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>298.4597358492115</v>
+        <v>298.4597358492114</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>436.4917989931252</v>
+        <v>436.4917989931251</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -25943,7 +25943,7 @@
         <v>3200</v>
       </c>
       <c r="B3200">
-        <v>86.88003019803983</v>
+        <v>86.88003019803982</v>
       </c>
     </row>
     <row r="3201" spans="1:2">
@@ -26023,7 +26023,7 @@
         <v>3210</v>
       </c>
       <c r="B3210">
-        <v>268.6555835015073</v>
+        <v>268.6555835015072</v>
       </c>
     </row>
     <row r="3211" spans="1:2">
@@ -26215,7 +26215,7 @@
         <v>3234</v>
       </c>
       <c r="B3234">
-        <v>460.5098498245384</v>
+        <v>460.5098498245383</v>
       </c>
     </row>
     <row r="3235" spans="1:2">
@@ -26255,7 +26255,7 @@
         <v>3239</v>
       </c>
       <c r="B3239">
-        <v>64.25649928988888</v>
+        <v>64.25649928988886</v>
       </c>
     </row>
     <row r="3240" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>466.8914716913892</v>
+        <v>466.8914716913891</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>359.1169417919888</v>
+        <v>359.1169417919887</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>348.4772908044273</v>
+        <v>348.4772908044272</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26615,7 +26615,7 @@
         <v>3284</v>
       </c>
       <c r="B3284">
-        <v>339.9500958635368</v>
+        <v>339.9500958635367</v>
       </c>
     </row>
     <row r="3285" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>29.33701469634031</v>
+        <v>29.3370146963403</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>38.81330261167326</v>
+        <v>38.81330261167325</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26935,7 +26935,7 @@
         <v>3324</v>
       </c>
       <c r="B3324">
-        <v>76.89905636986973</v>
+        <v>76.89905636986971</v>
       </c>
     </row>
     <row r="3325" spans="1:2">
@@ -26943,7 +26943,7 @@
         <v>3325</v>
       </c>
       <c r="B3325">
-        <v>82.48639710774054</v>
+        <v>82.48639710774053</v>
       </c>
     </row>
     <row r="3326" spans="1:2">
@@ -27007,7 +27007,7 @@
         <v>3333</v>
       </c>
       <c r="B3333">
-        <v>69.65240602530611</v>
+        <v>69.65240602530609</v>
       </c>
     </row>
     <row r="3334" spans="1:2">
@@ -27135,7 +27135,7 @@
         <v>3349</v>
       </c>
       <c r="B3349">
-        <v>93.39168768474467</v>
+        <v>93.39168768474465</v>
       </c>
     </row>
     <row r="3350" spans="1:2">
@@ -27215,7 +27215,7 @@
         <v>3359</v>
       </c>
       <c r="B3359">
-        <v>6.352112543967984</v>
+        <v>6.352112543967983</v>
       </c>
     </row>
     <row r="3360" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>94.17368913720473</v>
+        <v>94.17368913720472</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27367,7 +27367,7 @@
         <v>3378</v>
       </c>
       <c r="B3378">
-        <v>206.9113770763351</v>
+        <v>206.911377076335</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>194.9564232672615</v>
+        <v>194.9564232672614</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27743,7 +27743,7 @@
         <v>3425</v>
       </c>
       <c r="B3425">
-        <v>385.4634420255664</v>
+        <v>385.4634420255663</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27967,7 +27967,7 @@
         <v>3453</v>
       </c>
       <c r="B3453">
-        <v>357.3031251337137</v>
+        <v>357.3031251337136</v>
       </c>
     </row>
     <row r="3454" spans="1:2">
@@ -27975,7 +27975,7 @@
         <v>3454</v>
       </c>
       <c r="B3454">
-        <v>358.4724785779725</v>
+        <v>358.4724785779724</v>
       </c>
     </row>
     <row r="3455" spans="1:2">
@@ -28167,7 +28167,7 @@
         <v>3478</v>
       </c>
       <c r="B3478">
-        <v>251.0894915862236</v>
+        <v>251.0894915862235</v>
       </c>
     </row>
     <row r="3479" spans="1:2">
@@ -28191,7 +28191,7 @@
         <v>3481</v>
       </c>
       <c r="B3481">
-        <v>142.2177037180751</v>
+        <v>142.217703718075</v>
       </c>
     </row>
     <row r="3482" spans="1:2">
@@ -28263,7 +28263,7 @@
         <v>3490</v>
       </c>
       <c r="B3490">
-        <v>169.2511624662749</v>
+        <v>169.2511624662748</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -28591,7 +28591,7 @@
         <v>3531</v>
       </c>
       <c r="B3531">
-        <v>83.49476663046264</v>
+        <v>83.49476663046262</v>
       </c>
     </row>
     <row r="3532" spans="1:2">
@@ -28599,7 +28599,7 @@
         <v>3532</v>
       </c>
       <c r="B3532">
-        <v>73.71146921786961</v>
+        <v>73.71146921786959</v>
       </c>
     </row>
     <row r="3533" spans="1:2">
@@ -28623,7 +28623,7 @@
         <v>3535</v>
       </c>
       <c r="B3535">
-        <v>32.98573154341174</v>
+        <v>32.98573154341173</v>
       </c>
     </row>
     <row r="3536" spans="1:2">
@@ -28663,7 +28663,7 @@
         <v>3540</v>
       </c>
       <c r="B3540">
-        <v>341.5801569805712</v>
+        <v>341.5801569805711</v>
       </c>
     </row>
     <row r="3541" spans="1:2">
@@ -28703,7 +28703,7 @@
         <v>3545</v>
       </c>
       <c r="B3545">
-        <v>307.0036358393057</v>
+        <v>307.0036358393056</v>
       </c>
     </row>
     <row r="3546" spans="1:2">
@@ -28767,7 +28767,7 @@
         <v>3553</v>
       </c>
       <c r="B3553">
-        <v>199.9655934600612</v>
+        <v>199.9655934600611</v>
       </c>
     </row>
     <row r="3554" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>404.9470977468113</v>
+        <v>404.9470977468112</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>578.2731199346335</v>
+        <v>578.2731199346334</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>441.2811659069289</v>
+        <v>441.2811659069288</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>444.1904821077201</v>
+        <v>444.19048210772</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29151,7 +29151,7 @@
         <v>3601</v>
       </c>
       <c r="B3601">
-        <v>237.9912676553321</v>
+        <v>237.991267655332</v>
       </c>
     </row>
     <row r="3602" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>561.9613720648204</v>
+        <v>561.9613720648202</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>654.3168484781701</v>
+        <v>654.31684847817</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29287,7 +29287,7 @@
         <v>3618</v>
       </c>
       <c r="B3618">
-        <v>659.8555980378309</v>
+        <v>659.8555980378308</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -29383,7 +29383,7 @@
         <v>3630</v>
       </c>
       <c r="B3630">
-        <v>259.3218570622208</v>
+        <v>259.3218570622207</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>600.8082313104204</v>
+        <v>600.8082313104203</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29471,7 +29471,7 @@
         <v>3641</v>
       </c>
       <c r="B3641">
-        <v>583.3722629363023</v>
+        <v>583.3722629363021</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -29503,7 +29503,7 @@
         <v>3645</v>
       </c>
       <c r="B3645">
-        <v>380.4079666086582</v>
+        <v>380.4079666086581</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -29567,7 +29567,7 @@
         <v>3653</v>
       </c>
       <c r="B3653">
-        <v>93.79298985798364</v>
+        <v>93.79298985798363</v>
       </c>
     </row>
     <row r="3654" spans="1:2">
@@ -29583,7 +29583,7 @@
         <v>3655</v>
       </c>
       <c r="B3655">
-        <v>44.93494116012757</v>
+        <v>44.93494116012756</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>162.4425360960945</v>
+        <v>162.4425360960944</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29711,7 +29711,7 @@
         <v>3671</v>
       </c>
       <c r="B3671">
-        <v>118.5624748325246</v>
+        <v>118.5624748325245</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -29911,7 +29911,7 @@
         <v>3696</v>
       </c>
       <c r="B3696">
-        <v>59.36259393659468</v>
+        <v>59.36259393659466</v>
       </c>
     </row>
     <row r="3697" spans="1:2">
@@ -29959,7 +29959,7 @@
         <v>3702</v>
       </c>
       <c r="B3702">
-        <v>33.481549126619</v>
+        <v>33.48154912661899</v>
       </c>
     </row>
     <row r="3703" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>242.4919595960544</v>
+        <v>242.4919595960543</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30335,7 +30335,7 @@
         <v>3749</v>
       </c>
       <c r="B3749">
-        <v>200.7920537890862</v>
+        <v>200.7920537890861</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -30503,7 +30503,7 @@
         <v>3770</v>
       </c>
       <c r="B3770">
-        <v>328.833032153996</v>
+        <v>328.8330321539959</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -30511,7 +30511,7 @@
         <v>3771</v>
       </c>
       <c r="B3771">
-        <v>319.3008966215357</v>
+        <v>319.3008966215356</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>653.2509491105587</v>
+        <v>653.2509491105586</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>279.26651352728</v>
+        <v>279.2665135272799</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>553.7290065888232</v>
+        <v>553.729006588823</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -31191,7 +31191,7 @@
         <v>3856</v>
       </c>
       <c r="B3856">
-        <v>310.8396426643441</v>
+        <v>310.839642664344</v>
       </c>
     </row>
     <row r="3857" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>72.7041547508867</v>
+        <v>72.70415475088669</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31383,7 +31383,7 @@
         <v>3880</v>
       </c>
       <c r="B3880">
-        <v>246.0322577430834</v>
+        <v>246.0322577430833</v>
       </c>
     </row>
     <row r="3881" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>350.2960896703596</v>
+        <v>350.2960896703595</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31535,7 +31535,7 @@
         <v>3899</v>
       </c>
       <c r="B3899">
-        <v>305.022475617955</v>
+        <v>305.0224756179549</v>
       </c>
     </row>
     <row r="3900" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>376.4031508653509</v>
+        <v>376.4031508653508</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>468.1074234307952</v>
+        <v>468.1074234307951</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31615,7 +31615,7 @@
         <v>3909</v>
       </c>
       <c r="B3909">
-        <v>417.2566675126651</v>
+        <v>417.256667512665</v>
       </c>
     </row>
     <row r="3910" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>549.5269540364968</v>
+        <v>549.5269540364967</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>584.8138793754774</v>
+        <v>584.8138793754773</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31783,7 +31783,7 @@
         <v>3930</v>
       </c>
       <c r="B3930">
-        <v>765.3755324368095</v>
+        <v>765.3755324368094</v>
       </c>
     </row>
     <row r="3931" spans="1:2">
@@ -31791,7 +31791,7 @@
         <v>3931</v>
       </c>
       <c r="B3931">
-        <v>665.0836922965107</v>
+        <v>665.0836922965104</v>
       </c>
     </row>
     <row r="3932" spans="1:2">
@@ -31799,7 +31799,7 @@
         <v>3932</v>
       </c>
       <c r="B3932">
-        <v>549.3924344297512</v>
+        <v>549.3924344297511</v>
       </c>
     </row>
     <row r="3933" spans="1:2">
@@ -31879,7 +31879,7 @@
         <v>3942</v>
       </c>
       <c r="B3942">
-        <v>370.2551066163132</v>
+        <v>370.2551066163131</v>
       </c>
     </row>
     <row r="3943" spans="1:2">
@@ -31911,7 +31911,7 @@
         <v>3946</v>
       </c>
       <c r="B3946">
-        <v>645.8300973406149</v>
+        <v>645.8300973406148</v>
       </c>
     </row>
     <row r="3947" spans="1:2">
@@ -32095,7 +32095,7 @@
         <v>3969</v>
       </c>
       <c r="B3969">
-        <v>673.178314384337</v>
+        <v>673.1783143843368</v>
       </c>
     </row>
     <row r="3970" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>723.435308378139</v>
+        <v>723.4353083781389</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>776.1927844737999</v>
+        <v>776.1927844737997</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>854.9790717971292</v>
+        <v>854.9790717971291</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>787.5522179323136</v>
+        <v>787.5522179323135</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>716.3418169583799</v>
+        <v>716.3418169583798</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32239,7 +32239,7 @@
         <v>3987</v>
       </c>
       <c r="B3987">
-        <v>354.9743826605107</v>
+        <v>354.9743826605106</v>
       </c>
     </row>
     <row r="3988" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>430.9753228324027</v>
+        <v>430.9753228324026</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32359,7 +32359,7 @@
         <v>4002</v>
       </c>
       <c r="B4002">
-        <v>642.8718382763673</v>
+        <v>642.8718382763672</v>
       </c>
     </row>
     <row r="4003" spans="1:2">
@@ -32407,7 +32407,7 @@
         <v>4008</v>
       </c>
       <c r="B4008">
-        <v>358.4170881516655</v>
+        <v>358.4170881516654</v>
       </c>
     </row>
     <row r="4009" spans="1:2">
@@ -32479,7 +32479,7 @@
         <v>4017</v>
       </c>
       <c r="B4017">
-        <v>273.2008222401061</v>
+        <v>273.200822240106</v>
       </c>
     </row>
     <row r="4018" spans="1:2">
@@ -32487,7 +32487,7 @@
         <v>4018</v>
       </c>
       <c r="B4018">
-        <v>409.8774318302111</v>
+        <v>409.877431830211</v>
       </c>
     </row>
     <row r="4019" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>463.0950294565702</v>
+        <v>463.0950294565701</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32583,7 +32583,7 @@
         <v>4030</v>
       </c>
       <c r="B4030">
-        <v>318.903492293111</v>
+        <v>318.9034922931108</v>
       </c>
     </row>
     <row r="4031" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>577.7801744476052</v>
+        <v>577.7801744476051</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32759,7 +32759,7 @@
         <v>4052</v>
       </c>
       <c r="B4052">
-        <v>609.6709925905781</v>
+        <v>609.670992590578</v>
       </c>
     </row>
     <row r="4053" spans="1:2">
@@ -32839,7 +32839,7 @@
         <v>4062</v>
       </c>
       <c r="B4062">
-        <v>359.7180304922832</v>
+        <v>359.7180304922831</v>
       </c>
     </row>
     <row r="4063" spans="1:2">
@@ -32871,7 +32871,7 @@
         <v>4066</v>
       </c>
       <c r="B4066">
-        <v>609.1153299012763</v>
+        <v>609.1153299012761</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>684.9366175264688</v>
+        <v>684.9366175264687</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -32927,7 +32927,7 @@
         <v>4073</v>
       </c>
       <c r="B4073">
-        <v>601.9441746562717</v>
+        <v>601.9441746562716</v>
       </c>
     </row>
     <row r="4074" spans="1:2">
@@ -33119,7 +33119,7 @@
         <v>4097</v>
       </c>
       <c r="B4097">
-        <v>683.6051957978303</v>
+        <v>683.6051957978302</v>
       </c>
     </row>
     <row r="4098" spans="1:2">
@@ -33135,7 +33135,7 @@
         <v>4099</v>
       </c>
       <c r="B4099">
-        <v>614.0597313945317</v>
+        <v>614.0597313945316</v>
       </c>
     </row>
     <row r="4100" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>643.9125335346537</v>
+        <v>643.9125335346536</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33335,7 +33335,7 @@
         <v>4124</v>
       </c>
       <c r="B4124">
-        <v>464.022892364972</v>
+        <v>464.0228923649719</v>
       </c>
     </row>
     <row r="4125" spans="1:2">
@@ -33479,7 +33479,7 @@
         <v>4142</v>
       </c>
       <c r="B4142">
-        <v>591.2271529145037</v>
+        <v>591.2271529145034</v>
       </c>
     </row>
     <row r="4143" spans="1:2">
@@ -33511,7 +33511,7 @@
         <v>4146</v>
       </c>
       <c r="B4146">
-        <v>702.6140764364438</v>
+        <v>702.6140764364437</v>
       </c>
     </row>
     <row r="4147" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>623.9127797143261</v>
+        <v>623.912779714326</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33599,7 +33599,7 @@
         <v>4157</v>
       </c>
       <c r="B4157">
-        <v>224.5973350464313</v>
+        <v>224.5973350464312</v>
       </c>
     </row>
     <row r="4158" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>360.4741537720295</v>
+        <v>360.4741537720294</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33663,7 +33663,7 @@
         <v>4165</v>
       </c>
       <c r="B4165">
-        <v>514.2564406756812</v>
+        <v>514.2564406756811</v>
       </c>
     </row>
     <row r="4166" spans="1:2">
@@ -33791,7 +33791,7 @@
         <v>4181</v>
       </c>
       <c r="B4181">
-        <v>279.7697165006615</v>
+        <v>279.7697165006614</v>
       </c>
     </row>
     <row r="4182" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>577.5117213761914</v>
+        <v>577.5117213761912</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>585.0741264578087</v>
+        <v>585.0741264578086</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -33959,7 +33959,7 @@
         <v>4202</v>
       </c>
       <c r="B4202">
-        <v>386.6621025736913</v>
+        <v>386.6621025736912</v>
       </c>
     </row>
     <row r="4203" spans="1:2">
@@ -33999,7 +33999,7 @@
         <v>4207</v>
       </c>
       <c r="B4207">
-        <v>266.0522334650786</v>
+        <v>266.0522334650785</v>
       </c>
     </row>
     <row r="4208" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>577.9190901199306</v>
+        <v>577.9190901199305</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>577.0595127635369</v>
+        <v>577.0595127635368</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34375,7 +34375,7 @@
         <v>4254</v>
       </c>
       <c r="B4254">
-        <v>324.4961669238854</v>
+        <v>324.4961669238853</v>
       </c>
     </row>
     <row r="4255" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>217.4956376375896</v>
+        <v>217.4956376375895</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>443.5577417352502</v>
+        <v>443.5577417352501</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>515.940719934868</v>
+        <v>515.9407199348678</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34463,7 +34463,7 @@
         <v>4265</v>
       </c>
       <c r="B4265">
-        <v>392.3831423193994</v>
+        <v>392.3831423193993</v>
       </c>
     </row>
     <row r="4266" spans="1:2">
@@ -34519,7 +34519,7 @@
         <v>4272</v>
       </c>
       <c r="B4272">
-        <v>269.0878632835328</v>
+        <v>269.0878632835327</v>
       </c>
     </row>
     <row r="4273" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>387.6462351215161</v>
+        <v>387.646235121516</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>634.3188530840745</v>
+        <v>634.3188530840744</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34687,7 +34687,7 @@
         <v>4293</v>
       </c>
       <c r="B4293">
-        <v>474.1640295157705</v>
+        <v>474.1640295157704</v>
       </c>
     </row>
     <row r="4294" spans="1:2">
@@ -34711,7 +34711,7 @@
         <v>4296</v>
       </c>
       <c r="B4296">
-        <v>381.3481385006838</v>
+        <v>381.3481385006837</v>
       </c>
     </row>
     <row r="4297" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>260.2652527356717</v>
+        <v>260.2652527356716</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -34943,7 +34943,7 @@
         <v>4325</v>
       </c>
       <c r="B4325">
-        <v>212.3112109636704</v>
+        <v>212.3112109636703</v>
       </c>
     </row>
     <row r="4326" spans="1:2">
@@ -34959,7 +34959,7 @@
         <v>4327</v>
       </c>
       <c r="B4327">
-        <v>111.5448888117787</v>
+        <v>111.5448888117786</v>
       </c>
     </row>
     <row r="4328" spans="1:2">
@@ -35047,7 +35047,7 @@
         <v>4338</v>
       </c>
       <c r="B4338">
-        <v>526.8904400813332</v>
+        <v>526.8904400813331</v>
       </c>
     </row>
     <row r="4339" spans="1:2">
@@ -35087,7 +35087,7 @@
         <v>4343</v>
       </c>
       <c r="B4343">
-        <v>324.6509084322986</v>
+        <v>324.6509084322985</v>
       </c>
     </row>
     <row r="4344" spans="1:2">
@@ -35103,7 +35103,7 @@
         <v>4345</v>
       </c>
       <c r="B4345">
-        <v>305.6373386570665</v>
+        <v>305.6373386570664</v>
       </c>
     </row>
     <row r="4346" spans="1:2">
@@ -35135,7 +35135,7 @@
         <v>4349</v>
       </c>
       <c r="B4349">
-        <v>253.4240954801999</v>
+        <v>253.4240954801998</v>
       </c>
     </row>
     <row r="4350" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>422.881873028731</v>
+        <v>422.8818730287309</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>656.8891329845006</v>
+        <v>656.8891329845005</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>733.1972116049099</v>
+        <v>733.1972116049097</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>679.2574869392893</v>
+        <v>679.2574869392892</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35431,7 +35431,7 @@
         <v>4386</v>
       </c>
       <c r="B4386">
-        <v>899.4830813020092</v>
+        <v>899.4830813020091</v>
       </c>
     </row>
     <row r="4387" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>373.0556934617611</v>
+        <v>373.0556934617609</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>445.9119813888168</v>
+        <v>445.9119813888167</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35655,7 +35655,7 @@
         <v>4414</v>
       </c>
       <c r="B4414">
-        <v>454.7170076743582</v>
+        <v>454.7170076743581</v>
       </c>
     </row>
     <row r="4415" spans="1:2">
@@ -35719,7 +35719,7 @@
         <v>4422</v>
       </c>
       <c r="B4422">
-        <v>186.6695465780733</v>
+        <v>186.6695465780732</v>
       </c>
     </row>
     <row r="4423" spans="1:2">
@@ -35871,7 +35871,7 @@
         <v>4441</v>
       </c>
       <c r="B4441">
-        <v>302.0014993514338</v>
+        <v>302.0014993514337</v>
       </c>
     </row>
     <row r="4442" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>629.0881211860468</v>
+        <v>629.0881211860467</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -36023,7 +36023,7 @@
         <v>4460</v>
       </c>
       <c r="B4460">
-        <v>581.1214773593831</v>
+        <v>581.121477359383</v>
       </c>
     </row>
     <row r="4461" spans="1:2">
@@ -36071,7 +36071,7 @@
         <v>4466</v>
       </c>
       <c r="B4466">
-        <v>330.3971522873316</v>
+        <v>330.3971522873315</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>637.4426972851659</v>
+        <v>637.4426972851658</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36199,7 +36199,7 @@
         <v>4482</v>
       </c>
       <c r="B4482">
-        <v>756.6387917032762</v>
+        <v>756.6387917032761</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>633.3490810171442</v>
+        <v>633.349081017144</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>668.7218761704526</v>
+        <v>668.7218761704524</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>669.3842167178271</v>
+        <v>669.384216717827</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36407,7 +36407,7 @@
         <v>4508</v>
       </c>
       <c r="B4508">
-        <v>588.1121008445722</v>
+        <v>588.1121008445721</v>
       </c>
     </row>
     <row r="4509" spans="1:2">
@@ -36607,7 +36607,7 @@
         <v>4533</v>
       </c>
       <c r="B4533">
-        <v>530.6780901849924</v>
+        <v>530.6780901849922</v>
       </c>
     </row>
     <row r="4534" spans="1:2">
@@ -36615,7 +36615,7 @@
         <v>4534</v>
       </c>
       <c r="B4534">
-        <v>450.4416873623666</v>
+        <v>450.4416873623665</v>
       </c>
     </row>
     <row r="4535" spans="1:2">
@@ -36623,7 +36623,7 @@
         <v>4535</v>
       </c>
       <c r="B4535">
-        <v>434.4904168701069</v>
+        <v>434.4904168701068</v>
       </c>
     </row>
     <row r="4536" spans="1:2">
@@ -36679,7 +36679,7 @@
         <v>4542</v>
       </c>
       <c r="B4542">
-        <v>337.8508280136056</v>
+        <v>337.8508280136055</v>
       </c>
     </row>
     <row r="4543" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>538.964673803142</v>
+        <v>538.9646738031419</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36823,7 +36823,7 @@
         <v>4560</v>
       </c>
       <c r="B4560">
-        <v>295.404470271167</v>
+        <v>295.4044702711669</v>
       </c>
     </row>
     <row r="4561" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>327.5713613325589</v>
+        <v>327.5713613325588</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>535.341143481133</v>
+        <v>535.3411434811329</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37167,7 +37167,7 @@
         <v>4603</v>
       </c>
       <c r="B4603">
-        <v>599.8616118555442</v>
+        <v>599.8616118555441</v>
       </c>
     </row>
     <row r="4604" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>326.0567702047571</v>
+        <v>326.056770204757</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37311,7 +37311,7 @@
         <v>4621</v>
       </c>
       <c r="B4621">
-        <v>561.4895276925756</v>
+        <v>561.4895276925755</v>
       </c>
     </row>
     <row r="4622" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>469.8415247665543</v>
+        <v>469.8415247665542</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37375,7 +37375,7 @@
         <v>4629</v>
       </c>
       <c r="B4629">
-        <v>390.9025474320823</v>
+        <v>390.9025474320822</v>
       </c>
     </row>
     <row r="4630" spans="1:2">
@@ -37471,7 +37471,7 @@
         <v>4641</v>
       </c>
       <c r="B4641">
-        <v>324.499097634272</v>
+        <v>324.4990976342719</v>
       </c>
     </row>
     <row r="4642" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>470.1137877614707</v>
+        <v>470.1137877614706</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>538.8790970598528</v>
+        <v>538.8790970598527</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>381.5535812987854</v>
+        <v>381.5535812987853</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>180.168937869526</v>
+        <v>180.1689378695259</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37815,7 +37815,7 @@
         <v>4684</v>
       </c>
       <c r="B4684">
-        <v>170.2352950140997</v>
+        <v>170.2352950140996</v>
       </c>
     </row>
     <row r="4685" spans="1:2">
@@ -38103,7 +38103,7 @@
         <v>4720</v>
       </c>
       <c r="B4720">
-        <v>727.8152550509329</v>
+        <v>727.8152550509328</v>
       </c>
     </row>
     <row r="4721" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>217.8373584686687</v>
+        <v>217.8373584686686</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>727.351323596732</v>
+        <v>727.3513235967318</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38327,7 +38327,7 @@
         <v>4748</v>
       </c>
       <c r="B4748">
-        <v>539.5534535198126</v>
+        <v>539.5534535198125</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38343,7 +38343,7 @@
         <v>4750</v>
       </c>
       <c r="B4750">
-        <v>433.9672850660963</v>
+        <v>433.9672850660962</v>
       </c>
     </row>
     <row r="4751" spans="1:2">
@@ -38399,7 +38399,7 @@
         <v>4757</v>
       </c>
       <c r="B4757">
-        <v>317.2748965312699</v>
+        <v>317.2748965312698</v>
       </c>
     </row>
     <row r="4758" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>685.8381040413911</v>
+        <v>685.838104041391</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>707.4371465196936</v>
+        <v>707.4371465196934</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>755.4961077235356</v>
+        <v>755.4961077235355</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38519,7 +38519,7 @@
         <v>4772</v>
       </c>
       <c r="B4772">
-        <v>617.8467953561137</v>
+        <v>617.8467953561135</v>
       </c>
     </row>
     <row r="4773" spans="1:2">
@@ -38639,7 +38639,7 @@
         <v>4787</v>
       </c>
       <c r="B4787">
-        <v>691.6526334484322</v>
+        <v>691.652633448432</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>728.9907629870036</v>
+        <v>728.9907629870034</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38775,7 +38775,7 @@
         <v>4804</v>
       </c>
       <c r="B4804">
-        <v>389.0629405224051</v>
+        <v>389.062940522405</v>
       </c>
     </row>
     <row r="4805" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>433.9766633393335</v>
+        <v>433.9766633393334</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -38807,7 +38807,7 @@
         <v>4808</v>
       </c>
       <c r="B4808">
-        <v>536.516358346165</v>
+        <v>536.5163583461649</v>
       </c>
     </row>
     <row r="4809" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>724.8707703255025</v>
+        <v>724.8707703255022</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38919,7 +38919,7 @@
         <v>4822</v>
       </c>
       <c r="B4822">
-        <v>577.2294939659605</v>
+        <v>577.2294939659604</v>
       </c>
     </row>
     <row r="4823" spans="1:2">
@@ -38927,7 +38927,7 @@
         <v>4823</v>
       </c>
       <c r="B4823">
-        <v>505.6486511991588</v>
+        <v>505.6486511991587</v>
       </c>
     </row>
     <row r="4824" spans="1:2">
@@ -39015,7 +39015,7 @@
         <v>4834</v>
       </c>
       <c r="B4834">
-        <v>505.5897439203879</v>
+        <v>505.5897439203878</v>
       </c>
     </row>
     <row r="4835" spans="1:2">
@@ -39079,7 +39079,7 @@
         <v>4842</v>
       </c>
       <c r="B4842">
-        <v>780.4203342064898</v>
+        <v>780.4203342064897</v>
       </c>
     </row>
     <row r="4843" spans="1:2">
@@ -39175,7 +39175,7 @@
         <v>4854</v>
       </c>
       <c r="B4854">
-        <v>441.2823381910836</v>
+        <v>441.2823381910835</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>564.8369850961654</v>
+        <v>564.8369850961653</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39295,7 +39295,7 @@
         <v>4869</v>
       </c>
       <c r="B4869">
-        <v>552.5751859096135</v>
+        <v>552.5751859096134</v>
       </c>
     </row>
     <row r="4870" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>797.8088250723447</v>
+        <v>797.8088250723446</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>767.025522384473</v>
+        <v>767.0255223844729</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>712.3308467232607</v>
+        <v>712.3308467232606</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39671,7 +39671,7 @@
         <v>4916</v>
       </c>
       <c r="B4916">
-        <v>574.3234015465946</v>
+        <v>574.3234015465945</v>
       </c>
     </row>
     <row r="4917" spans="1:2">
@@ -39687,7 +39687,7 @@
         <v>4918</v>
       </c>
       <c r="B4918">
-        <v>479.7707715564007</v>
+        <v>479.7707715564006</v>
       </c>
     </row>
     <row r="4919" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>461.1267643609206</v>
+        <v>461.1267643609205</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>466.8642160847937</v>
+        <v>466.8642160847936</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39871,7 +39871,7 @@
         <v>4941</v>
       </c>
       <c r="B4941">
-        <v>519.8335825414066</v>
+        <v>519.8335825414065</v>
       </c>
     </row>
     <row r="4942" spans="1:2">
@@ -39935,7 +39935,7 @@
         <v>4949</v>
       </c>
       <c r="B4949">
-        <v>395.8528103461111</v>
+        <v>395.852810346111</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>691.0966776880916</v>
+        <v>691.0966776880915</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>753.3742734036275</v>
+        <v>753.3742734036273</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40047,7 +40047,7 @@
         <v>4963</v>
       </c>
       <c r="B4963">
-        <v>575.4833767176161</v>
+        <v>575.483376717616</v>
       </c>
     </row>
     <row r="4964" spans="1:2">
@@ -40071,7 +40071,7 @@
         <v>4966</v>
       </c>
       <c r="B4966">
-        <v>443.3396968824862</v>
+        <v>443.3396968824861</v>
       </c>
     </row>
     <row r="4967" spans="1:2">
@@ -40119,7 +40119,7 @@
         <v>4972</v>
       </c>
       <c r="B4972">
-        <v>281.4440313445338</v>
+        <v>281.4440313445337</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>551.4407079189554</v>
+        <v>551.4407079189552</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40223,7 +40223,7 @@
         <v>4985</v>
       </c>
       <c r="B4985">
-        <v>520.0759522903795</v>
+        <v>520.0759522903794</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40263,7 +40263,7 @@
         <v>4990</v>
       </c>
       <c r="B4990">
-        <v>299.4749339271344</v>
+        <v>299.4749339271343</v>
       </c>
     </row>
     <row r="4991" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>388.5336542265827</v>
+        <v>388.5336542265826</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>403.6792724335623</v>
+        <v>403.6792724335622</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40447,7 +40447,7 @@
         <v>5013</v>
       </c>
       <c r="B5013">
-        <v>360.1974947115332</v>
+        <v>360.1974947115331</v>
       </c>
     </row>
     <row r="5014" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>268.1629310855176</v>
+        <v>268.1629310855175</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40607,7 +40607,7 @@
         <v>5033</v>
       </c>
       <c r="B5033">
-        <v>338.5961076649214</v>
+        <v>338.5961076649213</v>
       </c>
     </row>
     <row r="5034" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>306.0763590729812</v>
+        <v>306.0763590729811</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40815,7 +40815,7 @@
         <v>5059</v>
       </c>
       <c r="B5059">
-        <v>466.33522286001</v>
+        <v>466.3352228600099</v>
       </c>
     </row>
     <row r="5060" spans="1:2">
@@ -41055,7 +41055,7 @@
         <v>5089</v>
       </c>
       <c r="B5089">
-        <v>300.1785974909603</v>
+        <v>300.1785974909602</v>
       </c>
     </row>
     <row r="5090" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>511.8090044318203</v>
+        <v>511.8090044318202</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>576.4129980522499</v>
+        <v>576.4129980522498</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>578.0465760217483</v>
+        <v>578.0465760217481</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>630.0836835043795</v>
+        <v>630.0836835043793</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41367,7 +41367,7 @@
         <v>5128</v>
       </c>
       <c r="B5128">
-        <v>683.5612351420311</v>
+        <v>683.561235142031</v>
       </c>
     </row>
     <row r="5129" spans="1:2">
@@ -41399,7 +41399,7 @@
         <v>5132</v>
       </c>
       <c r="B5132">
-        <v>547.7972487663176</v>
+        <v>547.7972487663175</v>
       </c>
     </row>
     <row r="5133" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>285.3427553718457</v>
+        <v>285.3427553718456</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41623,7 +41623,7 @@
         <v>5160</v>
       </c>
       <c r="B5160">
-        <v>389.0822832109567</v>
+        <v>389.0822832109566</v>
       </c>
     </row>
     <row r="5161" spans="1:2">
@@ -41639,7 +41639,7 @@
         <v>5162</v>
       </c>
       <c r="B5162">
-        <v>350.532891069598</v>
+        <v>350.5328910695979</v>
       </c>
     </row>
     <row r="5163" spans="1:2">
@@ -41647,7 +41647,7 @@
         <v>5163</v>
       </c>
       <c r="B5163">
-        <v>312.8017532681818</v>
+        <v>312.8017532681816</v>
       </c>
     </row>
     <row r="5164" spans="1:2">
@@ -41679,7 +41679,7 @@
         <v>5167</v>
       </c>
       <c r="B5167">
-        <v>220.8551109537646</v>
+        <v>220.8551109537645</v>
       </c>
     </row>
     <row r="5168" spans="1:2">
@@ -41815,7 +41815,7 @@
         <v>5184</v>
       </c>
       <c r="B5184">
-        <v>453.3779660987146</v>
+        <v>453.3779660987145</v>
       </c>
     </row>
     <row r="5185" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>367.4548128419041</v>
+        <v>367.454812841904</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>365.7749296482972</v>
+        <v>365.7749296482971</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>456.6240209229277</v>
+        <v>456.6240209229276</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41927,7 +41927,7 @@
         <v>5198</v>
       </c>
       <c r="B5198">
-        <v>326.3861820522124</v>
+        <v>326.3861820522123</v>
       </c>
     </row>
     <row r="5199" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>43.19430434020624</v>
+        <v>43.19430434020623</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42063,7 +42063,7 @@
         <v>5215</v>
       </c>
       <c r="B5215">
-        <v>36.51835122922786</v>
+        <v>36.51835122922785</v>
       </c>
     </row>
     <row r="5216" spans="1:2">
@@ -42335,7 +42335,7 @@
         <v>5249</v>
       </c>
       <c r="B5249">
-        <v>460.8926006010302</v>
+        <v>460.8926006010301</v>
       </c>
     </row>
     <row r="5250" spans="1:2">
@@ -42423,7 +42423,7 @@
         <v>5260</v>
       </c>
       <c r="B5260">
-        <v>62.79492471298089</v>
+        <v>62.79492471298087</v>
       </c>
     </row>
     <row r="5261" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>357.3555848496341</v>
+        <v>357.355584849634</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42479,7 +42479,7 @@
         <v>5267</v>
       </c>
       <c r="B5267">
-        <v>398.5789571477389</v>
+        <v>398.5789571477388</v>
       </c>
     </row>
     <row r="5268" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>521.6646903909627</v>
+        <v>521.6646903909626</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>519.4373504971364</v>
+        <v>519.4373504971363</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>488.1315021473316</v>
+        <v>488.1315021473314</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42807,7 +42807,7 @@
         <v>5308</v>
       </c>
       <c r="B5308">
-        <v>216.8110236912767</v>
+        <v>216.8110236912766</v>
       </c>
     </row>
     <row r="5309" spans="1:2">
@@ -42831,7 +42831,7 @@
         <v>5311</v>
       </c>
       <c r="B5311">
-        <v>124.673592130691</v>
+        <v>124.6735921306909</v>
       </c>
     </row>
     <row r="5312" spans="1:2">
@@ -42863,7 +42863,7 @@
         <v>5315</v>
       </c>
       <c r="B5315">
-        <v>398.3465518140805</v>
+        <v>398.3465518140804</v>
       </c>
     </row>
     <row r="5316" spans="1:2">
@@ -43023,7 +43023,7 @@
         <v>5335</v>
       </c>
       <c r="B5335">
-        <v>121.642944519894</v>
+        <v>121.6429445198939</v>
       </c>
     </row>
     <row r="5336" spans="1:2">
@@ -43103,7 +43103,7 @@
         <v>5345</v>
       </c>
       <c r="B5345">
-        <v>490.0473075270608</v>
+        <v>490.0473075270607</v>
       </c>
     </row>
     <row r="5346" spans="1:2">
@@ -43167,7 +43167,7 @@
         <v>5353</v>
       </c>
       <c r="B5353">
-        <v>309.8719220946843</v>
+        <v>309.8719220946842</v>
       </c>
     </row>
     <row r="5354" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>389.2803992330918</v>
+        <v>389.2803992330917</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43263,7 +43263,7 @@
         <v>5365</v>
       </c>
       <c r="B5365">
-        <v>559.3527467496957</v>
+        <v>559.3527467496956</v>
       </c>
     </row>
     <row r="5366" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>676.1225060387288</v>
+        <v>676.1225060387287</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43311,7 +43311,7 @@
         <v>5371</v>
       </c>
       <c r="B5371">
-        <v>601.2994183712168</v>
+        <v>601.2994183712167</v>
       </c>
     </row>
     <row r="5372" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>511.6015101364481</v>
+        <v>511.601510136448</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>573.9755262237036</v>
+        <v>573.9755262237035</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>642.2235651388484</v>
+        <v>642.2235651388482</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>554.3025466114834</v>
+        <v>554.3025466114833</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43543,7 +43543,7 @@
         <v>5400</v>
       </c>
       <c r="B5400">
-        <v>449.6817541591177</v>
+        <v>449.6817541591176</v>
       </c>
     </row>
     <row r="5401" spans="1:2">
@@ -43559,7 +43559,7 @@
         <v>5402</v>
       </c>
       <c r="B5402">
-        <v>398.0054171250787</v>
+        <v>398.0054171250786</v>
       </c>
     </row>
     <row r="5403" spans="1:2">
@@ -43567,7 +43567,7 @@
         <v>5403</v>
       </c>
       <c r="B5403">
-        <v>380.0140791326974</v>
+        <v>380.0140791326973</v>
       </c>
     </row>
     <row r="5404" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>673.8090032595362</v>
+        <v>673.8090032595361</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>700.1431945094901</v>
+        <v>700.1431945094899</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43735,7 +43735,7 @@
         <v>5424</v>
       </c>
       <c r="B5424">
-        <v>336.3907480989948</v>
+        <v>336.3907480989947</v>
       </c>
     </row>
     <row r="5425" spans="1:2">
@@ -43967,7 +43967,7 @@
         <v>5453</v>
       </c>
       <c r="B5453">
-        <v>138.9247575276762</v>
+        <v>138.9247575276761</v>
       </c>
     </row>
     <row r="5454" spans="1:2">
@@ -44119,7 +44119,7 @@
         <v>5472</v>
       </c>
       <c r="B5472">
-        <v>255.2461181275575</v>
+        <v>255.2461181275574</v>
       </c>
     </row>
     <row r="5473" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>470.630178931592</v>
+        <v>470.6301789315919</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44463,7 +44463,7 @@
         <v>5515</v>
       </c>
       <c r="B5515">
-        <v>501.2229854443339</v>
+        <v>501.2229854443338</v>
       </c>
     </row>
     <row r="5516" spans="1:2">
@@ -44487,7 +44487,7 @@
         <v>5518</v>
       </c>
       <c r="B5518">
-        <v>321.6114686903418</v>
+        <v>321.6114686903417</v>
       </c>
     </row>
     <row r="5519" spans="1:2">
@@ -44543,7 +44543,7 @@
         <v>5525</v>
       </c>
       <c r="B5525">
-        <v>179.2554354420186</v>
+        <v>179.2554354420185</v>
       </c>
     </row>
     <row r="5526" spans="1:2">
@@ -44591,7 +44591,7 @@
         <v>5531</v>
       </c>
       <c r="B5531">
-        <v>383.1443708966392</v>
+        <v>383.1443708966391</v>
       </c>
     </row>
     <row r="5532" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>427.5522531008382</v>
+        <v>427.5522531008381</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44671,7 +44671,7 @@
         <v>5541</v>
       </c>
       <c r="B5541">
-        <v>380.895343745952</v>
+        <v>380.8953437459519</v>
       </c>
     </row>
     <row r="5542" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>629.4875770117422</v>
+        <v>629.4875770117421</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44951,7 +44951,7 @@
         <v>5576</v>
       </c>
       <c r="B5576">
-        <v>186.8046523268962</v>
+        <v>186.8046523268961</v>
       </c>
     </row>
     <row r="5577" spans="1:2">
@@ -44959,7 +44959,7 @@
         <v>5577</v>
       </c>
       <c r="B5577">
-        <v>235.5347462092727</v>
+        <v>235.5347462092726</v>
       </c>
     </row>
     <row r="5578" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>525.0326627672589</v>
+        <v>525.0326627672588</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -45039,7 +45039,7 @@
         <v>5587</v>
       </c>
       <c r="B5587">
-        <v>502.4494877411316</v>
+        <v>502.4494877411315</v>
       </c>
     </row>
     <row r="5588" spans="1:2">
@@ -45151,7 +45151,7 @@
         <v>5601</v>
       </c>
       <c r="B5601">
-        <v>294.371981001963</v>
+        <v>294.3719810019629</v>
       </c>
     </row>
     <row r="5602" spans="1:2">
@@ -45223,7 +45223,7 @@
         <v>5610</v>
       </c>
       <c r="B5610">
-        <v>440.2181972497042</v>
+        <v>440.2181972497041</v>
       </c>
     </row>
     <row r="5611" spans="1:2">
@@ -45303,7 +45303,7 @@
         <v>5620</v>
       </c>
       <c r="B5620">
-        <v>62.4546399299912</v>
+        <v>62.45463992999119</v>
       </c>
     </row>
     <row r="5621" spans="1:2">
@@ -45399,7 +45399,7 @@
         <v>5632</v>
       </c>
       <c r="B5632">
-        <v>466.2660580948859</v>
+        <v>466.2660580948858</v>
       </c>
     </row>
     <row r="5633" spans="1:2">
@@ -45519,7 +45519,7 @@
         <v>5647</v>
       </c>
       <c r="B5647">
-        <v>91.97712170243796</v>
+        <v>91.97712170243794</v>
       </c>
     </row>
     <row r="5648" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>452.3006369605955</v>
+        <v>452.3006369605954</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45647,7 +45647,7 @@
         <v>5663</v>
       </c>
       <c r="B5663">
-        <v>191.0064118081839</v>
+        <v>191.0064118081838</v>
       </c>
     </row>
     <row r="5664" spans="1:2">
@@ -45751,7 +45751,7 @@
         <v>5676</v>
       </c>
       <c r="B5676">
-        <v>366.155042785441</v>
+        <v>366.1550427854409</v>
       </c>
     </row>
     <row r="5677" spans="1:2">
@@ -45839,7 +45839,7 @@
         <v>5687</v>
       </c>
       <c r="B5687">
-        <v>323.8701671853048</v>
+        <v>323.8701671853047</v>
       </c>
     </row>
     <row r="5688" spans="1:2">
@@ -45847,7 +45847,7 @@
         <v>5688</v>
       </c>
       <c r="B5688">
-        <v>298.3310776632392</v>
+        <v>298.3310776632391</v>
       </c>
     </row>
     <row r="5689" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>539.2659508308858</v>
+        <v>539.2659508308857</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>194.434170676367</v>
+        <v>194.4341706763669</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46231,7 +46231,7 @@
         <v>5736</v>
       </c>
       <c r="B5736">
-        <v>355.9256912520054</v>
+        <v>355.9256912520053</v>
       </c>
     </row>
     <row r="5737" spans="1:2">
@@ -46303,7 +46303,7 @@
         <v>5745</v>
       </c>
       <c r="B5745">
-        <v>410.7314408368703</v>
+        <v>410.7314408368702</v>
       </c>
     </row>
     <row r="5746" spans="1:2">
@@ -46423,7 +46423,7 @@
         <v>5760</v>
       </c>
       <c r="B5760">
-        <v>417.2402555345001</v>
+        <v>417.2402555345</v>
       </c>
     </row>
     <row r="5761" spans="1:2">
@@ -46487,7 +46487,7 @@
         <v>5768</v>
       </c>
       <c r="B5768">
-        <v>286.2398458211881</v>
+        <v>286.2398458211879</v>
       </c>
     </row>
     <row r="5769" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>564.8692229104183</v>
+        <v>564.8692229104181</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46639,7 +46639,7 @@
         <v>5787</v>
       </c>
       <c r="B5787">
-        <v>69.67851865485083</v>
+        <v>69.67851865485082</v>
       </c>
     </row>
     <row r="5788" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>62.0286904824008</v>
+        <v>62.02869048240079</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>423.9137761558576</v>
+        <v>423.9137761558575</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>537.7235179544111</v>
+        <v>537.723517954411</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>471.4818433699419</v>
+        <v>471.4818433699418</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47159,7 +47159,7 @@
         <v>5852</v>
       </c>
       <c r="B5852">
-        <v>514.2104285226114</v>
+        <v>514.2104285226113</v>
       </c>
     </row>
     <row r="5853" spans="1:2">
@@ -47175,7 +47175,7 @@
         <v>5854</v>
       </c>
       <c r="B5854">
-        <v>416.4439815224572</v>
+        <v>416.4439815224571</v>
       </c>
     </row>
     <row r="5855" spans="1:2">
@@ -47335,7 +47335,7 @@
         <v>5874</v>
       </c>
       <c r="B5874">
-        <v>627.6353680474026</v>
+        <v>627.6353680474025</v>
       </c>
     </row>
     <row r="5875" spans="1:2">
@@ -47343,7 +47343,7 @@
         <v>5875</v>
       </c>
       <c r="B5875">
-        <v>558.0222042341733</v>
+        <v>558.0222042341732</v>
       </c>
     </row>
     <row r="5876" spans="1:2">
@@ -47351,7 +47351,7 @@
         <v>5876</v>
       </c>
       <c r="B5876">
-        <v>535.896806170435</v>
+        <v>535.8968061704348</v>
       </c>
     </row>
     <row r="5877" spans="1:2">
@@ -47431,7 +47431,7 @@
         <v>5886</v>
       </c>
       <c r="B5886">
-        <v>201.1317231228947</v>
+        <v>201.1317231228946</v>
       </c>
     </row>
     <row r="5887" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>30.04930627154439</v>
+        <v>30.04930627154438</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>404.321684150308</v>
+        <v>404.3216841503079</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47751,7 +47751,7 @@
         <v>5926</v>
       </c>
       <c r="B5926">
-        <v>96.26946944177588</v>
+        <v>96.26946944177587</v>
       </c>
     </row>
     <row r="5927" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>22.75444867183136</v>
+        <v>22.75444867183135</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -47871,7 +47871,7 @@
         <v>5941</v>
       </c>
       <c r="B5941">
-        <v>299.020966888248</v>
+        <v>299.0209668882479</v>
       </c>
     </row>
     <row r="5942" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>70.83175319198322</v>
+        <v>70.83175319198321</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>85.60294383996916</v>
+        <v>85.60294383996914</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -48287,7 +48287,7 @@
         <v>5993</v>
       </c>
       <c r="B5993">
-        <v>497.1232146845003</v>
+        <v>497.1232146845002</v>
       </c>
     </row>
     <row r="5994" spans="1:2">
@@ -48351,7 +48351,7 @@
         <v>6001</v>
       </c>
       <c r="B6001">
-        <v>290.6573055869305</v>
+        <v>290.6573055869304</v>
       </c>
     </row>
     <row r="6002" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>447.2624527349683</v>
+        <v>447.2624527349682</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48559,7 +48559,7 @@
         <v>6027</v>
       </c>
       <c r="B6027">
-        <v>245.0006476869955</v>
+        <v>245.0006476869954</v>
       </c>
     </row>
     <row r="6028" spans="1:2">
@@ -48607,7 +48607,7 @@
         <v>6033</v>
       </c>
       <c r="B6033">
-        <v>184.2531758643105</v>
+        <v>184.2531758643104</v>
       </c>
     </row>
     <row r="6034" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>299.1540211398002</v>
+        <v>299.1540211398001</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48759,7 +48759,7 @@
         <v>6052</v>
       </c>
       <c r="B6052">
-        <v>227.0963517930966</v>
+        <v>227.0963517930965</v>
       </c>
     </row>
     <row r="6053" spans="1:2">
@@ -48831,7 +48831,7 @@
         <v>6061</v>
       </c>
       <c r="B6061">
-        <v>428.8804510480514</v>
+        <v>428.8804510480513</v>
       </c>
     </row>
     <row r="6062" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>367.19954796723</v>
+        <v>367.1995479672299</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48871,7 +48871,7 @@
         <v>6066</v>
       </c>
       <c r="B6066">
-        <v>504.7990382580796</v>
+        <v>504.7990382580795</v>
       </c>
     </row>
     <row r="6067" spans="1:2">
@@ -48911,7 +48911,7 @@
         <v>6071</v>
       </c>
       <c r="B6071">
-        <v>370.36090526127</v>
+        <v>370.3609052612699</v>
       </c>
     </row>
     <row r="6072" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>413.278521233876</v>
+        <v>413.2785212338759</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>408.6485849651041</v>
+        <v>408.648584965104</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>533.7984175336197</v>
+        <v>533.7984175336196</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49351,7 +49351,7 @@
         <v>6126</v>
       </c>
       <c r="B6126">
-        <v>59.21409484130497</v>
+        <v>59.21409484130496</v>
       </c>
     </row>
     <row r="6127" spans="1:2">
@@ -49383,7 +49383,7 @@
         <v>6130</v>
       </c>
       <c r="B6130">
-        <v>308.3664161690809</v>
+        <v>308.3664161690808</v>
       </c>
     </row>
     <row r="6131" spans="1:2">
@@ -49567,7 +49567,7 @@
         <v>6153</v>
       </c>
       <c r="B6153">
-        <v>212.9410206257536</v>
+        <v>212.9410206257535</v>
       </c>
     </row>
     <row r="6154" spans="1:2">
@@ -49623,7 +49623,7 @@
         <v>6160</v>
       </c>
       <c r="B6160">
-        <v>496.4667355578989</v>
+        <v>496.4667355578988</v>
       </c>
     </row>
     <row r="6161" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>384.78615485522</v>
+        <v>384.7861548552199</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49703,7 +49703,7 @@
         <v>6170</v>
       </c>
       <c r="B6170">
-        <v>185.0084199309408</v>
+        <v>185.0084199309407</v>
       </c>
     </row>
     <row r="6171" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>430.1169177601636</v>
+        <v>430.1169177601635</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>319.1895296268444</v>
+        <v>319.1895296268443</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>493.0987631816027</v>
+        <v>493.0987631816026</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50407,7 +50407,7 @@
         <v>6258</v>
       </c>
       <c r="B6258">
-        <v>440.7199348678924</v>
+        <v>440.7199348678923</v>
       </c>
     </row>
     <row r="6259" spans="1:2">
@@ -50471,7 +50471,7 @@
         <v>6266</v>
       </c>
       <c r="B6266">
-        <v>63.49867619811837</v>
+        <v>63.49867619811836</v>
       </c>
     </row>
     <row r="6267" spans="1:2">
@@ -50567,7 +50567,7 @@
         <v>6278</v>
       </c>
       <c r="B6278">
-        <v>562.0229169829393</v>
+        <v>562.0229169829391</v>
       </c>
     </row>
     <row r="6279" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>297.3375668421772</v>
+        <v>297.3375668421771</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>449.8660958424357</v>
+        <v>449.8660958424356</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>648.026371704343</v>
+        <v>648.0263717043429</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>228.6118221340144</v>
+        <v>228.6118221340143</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>64.40608274802163</v>
+        <v>64.40608274802162</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>41.30619417363053</v>
+        <v>41.30619417363052</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -50919,7 +50919,7 @@
         <v>6322</v>
       </c>
       <c r="B6322">
-        <v>91.5621331116935</v>
+        <v>91.56213311169347</v>
       </c>
     </row>
     <row r="6323" spans="1:2">
@@ -50927,7 +50927,7 @@
         <v>6323</v>
       </c>
       <c r="B6323">
-        <v>92.27517494875654</v>
+        <v>92.27517494875653</v>
       </c>
     </row>
     <row r="6324" spans="1:2">
@@ -51215,7 +51215,7 @@
         <v>6359</v>
       </c>
       <c r="B6359">
-        <v>89.21776995212979</v>
+        <v>89.21776995212977</v>
       </c>
     </row>
     <row r="6360" spans="1:2">
@@ -51367,7 +51367,7 @@
         <v>6378</v>
       </c>
       <c r="B6378">
-        <v>230.6369430111643</v>
+        <v>230.6369430111642</v>
       </c>
     </row>
     <row r="6379" spans="1:2">
@@ -51407,7 +51407,7 @@
         <v>6383</v>
       </c>
       <c r="B6383">
-        <v>91.10631972526349</v>
+        <v>91.10631972526348</v>
       </c>
     </row>
     <row r="6384" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>94.04092795669115</v>
+        <v>94.04092795669114</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51583,7 +51583,7 @@
         <v>6405</v>
       </c>
       <c r="B6405">
-        <v>70.5726783938066</v>
+        <v>70.57267839380658</v>
       </c>
     </row>
     <row r="6406" spans="1:2">
@@ -51607,7 +51607,7 @@
         <v>6408</v>
       </c>
       <c r="B6408">
-        <v>13.78052847741976</v>
+        <v>13.78052847741975</v>
       </c>
     </row>
     <row r="6409" spans="1:2">
@@ -51631,7 +51631,7 @@
         <v>6411</v>
       </c>
       <c r="B6411">
-        <v>8.558641463338866</v>
+        <v>8.558641463338864</v>
       </c>
     </row>
     <row r="6412" spans="1:2">
@@ -51751,7 +51751,7 @@
         <v>6426</v>
       </c>
       <c r="B6426">
-        <v>276.1866299819879</v>
+        <v>276.1866299819878</v>
       </c>
     </row>
     <row r="6427" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>82.64251605003544</v>
+        <v>82.64251605003543</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51807,7 +51807,7 @@
         <v>6433</v>
       </c>
       <c r="B6433">
-        <v>38.44728619148911</v>
+        <v>38.4472861914891</v>
       </c>
     </row>
     <row r="6434" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>40.17127657641447</v>
+        <v>40.17127657641446</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -51903,7 +51903,7 @@
         <v>6445</v>
       </c>
       <c r="B6445">
-        <v>283.1124847676328</v>
+        <v>283.1124847676327</v>
       </c>
     </row>
     <row r="6446" spans="1:2">
@@ -51919,7 +51919,7 @@
         <v>6447</v>
       </c>
       <c r="B6447">
-        <v>366.889771879365</v>
+        <v>366.8897718793649</v>
       </c>
     </row>
     <row r="6448" spans="1:2">
@@ -51983,7 +51983,7 @@
         <v>6455</v>
       </c>
       <c r="B6455">
-        <v>50.04126440224353</v>
+        <v>50.04126440224352</v>
       </c>
     </row>
     <row r="6456" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>85.66085467720865</v>
+        <v>85.66085467720863</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>83.2691019306934</v>
+        <v>83.26910193069338</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52439,7 +52439,7 @@
         <v>6512</v>
       </c>
       <c r="B6512">
-        <v>53.98386116404301</v>
+        <v>53.98386116404299</v>
       </c>
     </row>
     <row r="6513" spans="1:2">
@@ -52631,7 +52631,7 @@
         <v>6536</v>
       </c>
       <c r="B6536">
-        <v>57.65073669266989</v>
+        <v>57.65073669266988</v>
       </c>
     </row>
     <row r="6537" spans="1:2">
@@ -52647,7 +52647,7 @@
         <v>6538</v>
       </c>
       <c r="B6538">
-        <v>144.6475556996163</v>
+        <v>144.6475556996162</v>
       </c>
     </row>
     <row r="6539" spans="1:2">
@@ -52847,7 +52847,7 @@
         <v>6563</v>
       </c>
       <c r="B6563">
-        <v>52.35095725793359</v>
+        <v>52.35095725793357</v>
       </c>
     </row>
     <row r="6564" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>98.53927532910413</v>
+        <v>98.53927532910411</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -52919,7 +52919,7 @@
         <v>6572</v>
       </c>
       <c r="B6572">
-        <v>99.38373021990293</v>
+        <v>99.38373021990292</v>
       </c>
     </row>
     <row r="6573" spans="1:2">
@@ -52927,7 +52927,7 @@
         <v>6573</v>
       </c>
       <c r="B6573">
-        <v>79.80547116737816</v>
+        <v>79.80547116737814</v>
       </c>
     </row>
     <row r="6574" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>265.0742554090657</v>
+        <v>265.0742554090656</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53359,7 +53359,7 @@
         <v>6627</v>
       </c>
       <c r="B6627">
-        <v>91.96569193193017</v>
+        <v>91.96569193193014</v>
       </c>
     </row>
     <row r="6628" spans="1:2">
@@ -53367,7 +53367,7 @@
         <v>6628</v>
       </c>
       <c r="B6628">
-        <v>67.15107401743539</v>
+        <v>67.15107401743538</v>
       </c>
     </row>
     <row r="6629" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>34.95751349152528</v>
+        <v>34.95751349152527</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>495.468828671257</v>
+        <v>495.4688286712569</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -53775,7 +53775,7 @@
         <v>6679</v>
       </c>
       <c r="B6679">
-        <v>96.00843106764023</v>
+        <v>96.0084310676402</v>
       </c>
     </row>
     <row r="6680" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>89.69576881618644</v>
+        <v>89.69576881618643</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>136.9882027184098</v>
+        <v>136.9882027184097</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>104.9206041249163</v>
+        <v>104.9206041249162</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54263,7 +54263,7 @@
         <v>6740</v>
       </c>
       <c r="B6740">
-        <v>5.286474009581079</v>
+        <v>5.286474009581078</v>
       </c>
     </row>
     <row r="6741" spans="1:2">
@@ -54495,7 +54495,7 @@
         <v>6769</v>
       </c>
       <c r="B6769">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="6770" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>4.222567525032663</v>
+        <v>4.222567525032662</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54727,7 +54727,7 @@
         <v>6798</v>
       </c>
       <c r="B6798">
-        <v>22.59384281193456</v>
+        <v>22.59384281193455</v>
       </c>
     </row>
     <row r="6799" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>98.15154234495517</v>
+        <v>98.15154234495516</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54887,7 +54887,7 @@
         <v>6818</v>
       </c>
       <c r="B6818">
-        <v>32.22491912704688</v>
+        <v>32.22491912704687</v>
       </c>
     </row>
     <row r="6819" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>26.12200781796303</v>
+        <v>26.12200781796302</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>323.9539855023619</v>
+        <v>323.9539855023618</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>367.3885787871666</v>
+        <v>367.3885787871665</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>432.1042324733262</v>
+        <v>432.1042324733261</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55263,7 +55263,7 @@
         <v>6865</v>
       </c>
       <c r="B6865">
-        <v>95.4552887892708</v>
+        <v>95.45528878927078</v>
       </c>
     </row>
     <row r="6866" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>51.53815403931021</v>
+        <v>51.5381540393102</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55423,7 +55423,7 @@
         <v>6885</v>
       </c>
       <c r="B6885">
-        <v>284.6918445949788</v>
+        <v>284.6918445949787</v>
       </c>
     </row>
     <row r="6886" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>87.043094923951</v>
+        <v>87.04309492395099</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55623,7 +55623,7 @@
         <v>6910</v>
       </c>
       <c r="B6910">
-        <v>58.93233634473595</v>
+        <v>58.93233634473594</v>
       </c>
     </row>
     <row r="6911" spans="1:2">
@@ -55799,7 +55799,7 @@
         <v>6932</v>
       </c>
       <c r="B6932">
-        <v>91.69679925395837</v>
+        <v>91.69679925395836</v>
       </c>
     </row>
     <row r="6933" spans="1:2">
@@ -55991,7 +55991,7 @@
         <v>6956</v>
       </c>
       <c r="B6956">
-        <v>81.31672128533924</v>
+        <v>81.31672128533923</v>
       </c>
     </row>
     <row r="6957" spans="1:2">
@@ -56039,7 +56039,7 @@
         <v>6962</v>
       </c>
       <c r="B6962">
-        <v>11.36412259513233</v>
+        <v>11.36412259513232</v>
       </c>
     </row>
     <row r="6963" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>6.592750243102428</v>
+        <v>6.592750243102427</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -56167,7 +56167,7 @@
         <v>6978</v>
       </c>
       <c r="B6978">
-        <v>142.3383317575881</v>
+        <v>142.338331757588</v>
       </c>
     </row>
     <row r="6979" spans="1:2">
@@ -56183,7 +56183,7 @@
         <v>6980</v>
       </c>
       <c r="B6980">
-        <v>52.21977866102877</v>
+        <v>52.21977866102876</v>
       </c>
     </row>
     <row r="6981" spans="1:2">
@@ -56215,7 +56215,7 @@
         <v>6984</v>
       </c>
       <c r="B6984">
-        <v>10.57121890003406</v>
+        <v>10.57121890003405</v>
       </c>
     </row>
     <row r="6985" spans="1:2">
@@ -56223,7 +56223,7 @@
         <v>6985</v>
       </c>
       <c r="B6985">
-        <v>6.218967440393747</v>
+        <v>6.218967440393746</v>
       </c>
     </row>
     <row r="6986" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>8.548852890647577</v>
+        <v>8.548852890647575</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -56447,7 +56447,7 @@
         <v>7013</v>
       </c>
       <c r="B7013">
-        <v>9.234873577946054</v>
+        <v>9.234873577946052</v>
       </c>
     </row>
     <row r="7014" spans="1:2">
@@ -56591,7 +56591,7 @@
         <v>7031</v>
       </c>
       <c r="B7031">
-        <v>49.49058392059887</v>
+        <v>49.49058392059885</v>
       </c>
     </row>
     <row r="7032" spans="1:2">
@@ -56727,7 +56727,7 @@
         <v>7048</v>
       </c>
       <c r="B7048">
-        <v>378.1038421027027</v>
+        <v>378.1038421027026</v>
       </c>
     </row>
     <row r="7049" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>328.3875641752308</v>
+        <v>328.3875641752307</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>334.4808041400388</v>
+        <v>334.4808041400387</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56895,7 +56895,7 @@
         <v>7069</v>
       </c>
       <c r="B7069">
-        <v>378.2146229553167</v>
+        <v>378.2146229553166</v>
       </c>
     </row>
     <row r="7070" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>445.9697163834331</v>
+        <v>445.969716383433</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -57087,7 +57087,7 @@
         <v>7093</v>
       </c>
       <c r="B7093">
-        <v>377.6202748889115</v>
+        <v>377.6202748889114</v>
       </c>
     </row>
     <row r="7094" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>421.8499699016044</v>
+        <v>421.8499699016043</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>458.2924743460267</v>
+        <v>458.2924743460266</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57311,7 +57311,7 @@
         <v>7121</v>
       </c>
       <c r="B7121">
-        <v>374.0629786216401</v>
+        <v>374.06297862164</v>
       </c>
     </row>
     <row r="7122" spans="1:2">
@@ -57335,7 +57335,7 @@
         <v>7124</v>
       </c>
       <c r="B7124">
-        <v>353.3563374560614</v>
+        <v>353.3563374560613</v>
       </c>
     </row>
     <row r="7125" spans="1:2">
@@ -57343,7 +57343,7 @@
         <v>7125</v>
       </c>
       <c r="B7125">
-        <v>303.7898188293454</v>
+        <v>303.7898188293453</v>
       </c>
     </row>
     <row r="7126" spans="1:2">
@@ -57495,7 +57495,7 @@
         <v>7144</v>
       </c>
       <c r="B7144">
-        <v>388.0465701603275</v>
+        <v>388.0465701603274</v>
       </c>
     </row>
     <row r="7145" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>79.14793698503756</v>
+        <v>79.14793698503755</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57943,7 +57943,7 @@
         <v>7200</v>
       </c>
       <c r="B7200">
-        <v>1.747274878947008</v>
+        <v>1.747274878947007</v>
       </c>
     </row>
     <row r="7201" spans="1:2">
@@ -58527,7 +58527,7 @@
         <v>7273</v>
       </c>
       <c r="B7273">
-        <v>5.733348729331898</v>
+        <v>5.733348729331897</v>
       </c>
     </row>
     <row r="7274" spans="1:2">
@@ -58535,7 +58535,7 @@
         <v>7274</v>
       </c>
       <c r="B7274">
-        <v>4.222567525032663</v>
+        <v>4.222567525032662</v>
       </c>
     </row>
     <row r="7275" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>4.222567525032663</v>
+        <v>4.222567525032662</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58599,7 +58599,7 @@
         <v>7282</v>
       </c>
       <c r="B7282">
-        <v>25.30943905617059</v>
+        <v>25.30943905617058</v>
       </c>
     </row>
     <row r="7283" spans="1:2">
@@ -58711,7 +58711,7 @@
         <v>7296</v>
       </c>
       <c r="B7296">
-        <v>12.75081752166235</v>
+        <v>12.75081752166234</v>
       </c>
     </row>
     <row r="7297" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>9.475045294129028</v>
+        <v>9.475045294129025</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>29.70846465358124</v>
+        <v>29.70846465358123</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>138.9886470141044</v>
+        <v>138.9886470141043</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58935,7 +58935,7 @@
         <v>7324</v>
       </c>
       <c r="B7324">
-        <v>0.3452757827780908</v>
+        <v>0.3452757827780907</v>
       </c>
     </row>
     <row r="7325" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>40.6119088830418</v>
+        <v>40.61190888304179</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59111,7 +59111,7 @@
         <v>7346</v>
       </c>
       <c r="B7346">
-        <v>8.246432885852935</v>
+        <v>8.246432885852933</v>
       </c>
     </row>
     <row r="7347" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>10.76046366182885</v>
+        <v>10.76046366182884</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59407,7 +59407,7 @@
         <v>7383</v>
       </c>
       <c r="B7383">
-        <v>82.03031995737575</v>
+        <v>82.03031995737574</v>
       </c>
     </row>
     <row r="7384" spans="1:2">
@@ -59447,7 +59447,7 @@
         <v>7388</v>
       </c>
       <c r="B7388">
-        <v>77.85698836683821</v>
+        <v>77.85698836683819</v>
       </c>
     </row>
     <row r="7389" spans="1:2">
@@ -59487,7 +59487,7 @@
         <v>7393</v>
       </c>
       <c r="B7393">
-        <v>9.561735707365052</v>
+        <v>9.561735707365051</v>
       </c>
     </row>
     <row r="7394" spans="1:2">
@@ -59503,7 +59503,7 @@
         <v>7395</v>
       </c>
       <c r="B7395">
-        <v>2.745852898267423</v>
+        <v>2.745852898267422</v>
       </c>
     </row>
     <row r="7396" spans="1:2">
@@ -59511,7 +59511,7 @@
         <v>7396</v>
       </c>
       <c r="B7396">
-        <v>0.75452311187518</v>
+        <v>0.7545231118751798</v>
       </c>
     </row>
     <row r="7397" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>15.44789167625498</v>
+        <v>15.44789167625497</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>19.89831021100529</v>
+        <v>19.89831021100528</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59583,7 +59583,7 @@
         <v>7405</v>
       </c>
       <c r="B7405">
-        <v>54.48808988605985</v>
+        <v>54.48808988605984</v>
       </c>
     </row>
     <row r="7406" spans="1:2">
@@ -59591,7 +59591,7 @@
         <v>7406</v>
       </c>
       <c r="B7406">
-        <v>87.29326036255233</v>
+        <v>87.29326036255232</v>
       </c>
     </row>
     <row r="7407" spans="1:2">
@@ -59631,7 +59631,7 @@
         <v>7411</v>
       </c>
       <c r="B7411">
-        <v>40.13552190969779</v>
+        <v>40.13552190969778</v>
       </c>
     </row>
     <row r="7412" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>123.8242722606504</v>
+        <v>123.8242722606503</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>8.666169227423714</v>
+        <v>8.666169227423712</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60207,7 +60207,7 @@
         <v>7483</v>
       </c>
       <c r="B7483">
-        <v>89.57276690126028</v>
+        <v>89.57276690126027</v>
       </c>
     </row>
     <row r="7484" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>61.69968893439957</v>
+        <v>61.69968893439956</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60319,7 +60319,7 @@
         <v>7497</v>
       </c>
       <c r="B7497">
-        <v>38.45947794669742</v>
+        <v>38.45947794669741</v>
       </c>
     </row>
     <row r="7498" spans="1:2">
@@ -60511,7 +60511,7 @@
         <v>7521</v>
       </c>
       <c r="B7521">
-        <v>63.74136832523384</v>
+        <v>63.74136832523383</v>
       </c>
     </row>
     <row r="7522" spans="1:2">
@@ -60527,7 +60527,7 @@
         <v>7523</v>
       </c>
       <c r="B7523">
-        <v>38.13607405553462</v>
+        <v>38.13607405553461</v>
       </c>
     </row>
     <row r="7524" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>4.744746848167515</v>
+        <v>4.744746848167514</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>8.861647610210831</v>
+        <v>8.861647610210829</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>60.38743405168954</v>
+        <v>60.38743405168952</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61159,7 +61159,7 @@
         <v>7602</v>
       </c>
       <c r="B7602">
-        <v>21.27465093773941</v>
+        <v>21.2746509377394</v>
       </c>
     </row>
     <row r="7603" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>7.396453605975368</v>
+        <v>7.396453605975367</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61351,7 +61351,7 @@
         <v>7626</v>
       </c>
       <c r="B7626">
-        <v>17.994913459053</v>
+        <v>17.99491345905299</v>
       </c>
     </row>
     <row r="7627" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>6.436103772937939</v>
+        <v>6.436103772937938</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61791,7 +61791,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>4.222655446344262</v>
+        <v>4.222655446344261</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -61855,7 +61855,7 @@
         <v>7689</v>
       </c>
       <c r="B7689">
-        <v>5.426518005405403</v>
+        <v>5.426518005405402</v>
       </c>
     </row>
     <row r="7690" spans="1:2">
@@ -62103,7 +62103,7 @@
         <v>7720</v>
       </c>
       <c r="B7720">
-        <v>0.8238402739393613</v>
+        <v>0.8238402739393612</v>
       </c>
     </row>
     <row r="7721" spans="1:2">
@@ -62255,7 +62255,7 @@
         <v>7739</v>
       </c>
       <c r="B7739">
-        <v>9.398641674350014</v>
+        <v>9.398641674350012</v>
       </c>
     </row>
     <row r="7740" spans="1:2">
@@ -62519,7 +62519,7 @@
         <v>7772</v>
       </c>
       <c r="B7772">
-        <v>4.220750484592963</v>
+        <v>4.220750484592962</v>
       </c>
     </row>
     <row r="7773" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>9.27493638893106</v>
+        <v>9.274936388931058</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>7.426830419132616</v>
+        <v>7.426830419132615</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>10.41685838397113</v>
+        <v>10.41685838397112</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>6.108098666468161</v>
+        <v>6.10809866646816</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>24.94093153215781</v>
+        <v>24.9409315321578</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62863,7 +62863,7 @@
         <v>7815</v>
       </c>
       <c r="B7815">
-        <v>13.17448101515119</v>
+        <v>13.17448101515118</v>
       </c>
     </row>
     <row r="7816" spans="1:2">
@@ -63007,7 +63007,7 @@
         <v>7833</v>
       </c>
       <c r="B7833">
-        <v>7.589572766901261</v>
+        <v>7.58957276690126</v>
       </c>
     </row>
     <row r="7834" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>5.978766417106909</v>
+        <v>5.978766417106908</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>71.11143088417775</v>
+        <v>71.11143088417774</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63871,7 +63871,7 @@
         <v>7941</v>
       </c>
       <c r="B7941">
-        <v>7.192842501865398</v>
+        <v>7.192842501865397</v>
       </c>
     </row>
     <row r="7942" spans="1:2">
@@ -64399,7 +64399,7 @@
         <v>8007</v>
       </c>
       <c r="B8007">
-        <v>16.39348538249581</v>
+        <v>16.3934853824958</v>
       </c>
     </row>
     <row r="8008" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>89.64741209480732</v>
+        <v>89.64741209480731</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -65007,7 +65007,7 @@
         <v>8083</v>
       </c>
       <c r="B8083">
-        <v>172.4901835855601</v>
+        <v>172.49018358556</v>
       </c>
     </row>
     <row r="8084" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>49.72659402803284</v>
+        <v>49.72659402803283</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65063,7 +65063,7 @@
         <v>8090</v>
       </c>
       <c r="B8090">
-        <v>21.23847717943744</v>
+        <v>21.23847717943743</v>
       </c>
     </row>
     <row r="8091" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>86.59082769708881</v>
+        <v>86.5908276970888</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>82.32673200587784</v>
+        <v>82.32673200587783</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>69.36343798118602</v>
+        <v>69.36343798118601</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65447,7 +65447,7 @@
         <v>8138</v>
       </c>
       <c r="B8138">
-        <v>41.05916459514288</v>
+        <v>41.05916459514287</v>
       </c>
     </row>
     <row r="8139" spans="1:2">
@@ -65503,7 +65503,7 @@
         <v>8145</v>
       </c>
       <c r="B8145">
-        <v>88.77737210233339</v>
+        <v>88.77737210233337</v>
       </c>
     </row>
     <row r="8146" spans="1:2">
@@ -65583,7 +65583,7 @@
         <v>8155</v>
       </c>
       <c r="B8155">
-        <v>281.4768553008638</v>
+        <v>281.4768553008637</v>
       </c>
     </row>
     <row r="8156" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>98.64302247679026</v>
+        <v>98.64302247679024</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>33.38923174944068</v>
+        <v>33.38923174944067</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>11.08283301222517</v>
+        <v>11.08283301222516</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>7.215766518509488</v>
+        <v>7.215766518509487</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>65.28661468367964</v>
+        <v>65.28661468367963</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>0.2110841225247953</v>
+        <v>0.2110841225247952</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66263,7 +66263,7 @@
         <v>8240</v>
       </c>
       <c r="B8240">
-        <v>9.385306942090924</v>
+        <v>9.385306942090921</v>
       </c>
     </row>
     <row r="8241" spans="1:2">
@@ -66327,7 +66327,7 @@
         <v>8248</v>
       </c>
       <c r="B8248">
-        <v>61.65654887750863</v>
+        <v>61.65654887750861</v>
       </c>
     </row>
     <row r="8249" spans="1:2">
@@ -66375,7 +66375,7 @@
         <v>8254</v>
       </c>
       <c r="B8254">
-        <v>7.542830866945164</v>
+        <v>7.542830866945162</v>
       </c>
     </row>
     <row r="8255" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>1.698261678441285</v>
+        <v>1.698261678441284</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>16.77166425078441</v>
+        <v>16.7716642507844</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66543,7 +66543,7 @@
         <v>8275</v>
       </c>
       <c r="B8275">
-        <v>7.202282906162758</v>
+        <v>7.202282906162757</v>
       </c>
     </row>
     <row r="8276" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>5.116697956884562</v>
+        <v>5.116697956884561</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>71.2078805630012</v>
+        <v>71.20788056300118</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67231,7 +67231,7 @@
         <v>8361</v>
       </c>
       <c r="B8361">
-        <v>0.8155111950206059</v>
+        <v>0.8155111950206058</v>
       </c>
     </row>
     <row r="8362" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>16.65748377412195</v>
+        <v>16.65748377412194</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>58.72853474445085</v>
+        <v>58.72853474445084</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>16.31341837473353</v>
+        <v>16.31341837473352</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>42.17978032567227</v>
+        <v>42.17978032567226</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>35.24847441870826</v>
+        <v>35.24847441870824</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68295,7 +68295,7 @@
         <v>8494</v>
       </c>
       <c r="B8494">
-        <v>18.42783799736354</v>
+        <v>18.42783799736353</v>
       </c>
     </row>
     <row r="8495" spans="1:2">
@@ -68303,7 +68303,7 @@
         <v>8495</v>
       </c>
       <c r="B8495">
-        <v>14.15784864756508</v>
+        <v>14.15784864756507</v>
       </c>
     </row>
     <row r="8496" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>7.290669614570555</v>
+        <v>7.290669614570554</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68551,7 +68551,7 @@
         <v>8526</v>
       </c>
       <c r="B8526">
-        <v>53.60034840285077</v>
+        <v>53.60034840285076</v>
       </c>
     </row>
     <row r="8527" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>7.671515429310973</v>
+        <v>7.671515429310972</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68615,7 +68615,7 @@
         <v>8534</v>
       </c>
       <c r="B8534">
-        <v>0.4630229339810595</v>
+        <v>0.4630229339810594</v>
       </c>
     </row>
     <row r="8535" spans="1:2">
@@ -68959,7 +68959,7 @@
         <v>8577</v>
       </c>
       <c r="B8577">
-        <v>6.570007930502307</v>
+        <v>6.570007930502306</v>
       </c>
     </row>
     <row r="8578" spans="1:2">
@@ -69175,7 +69175,7 @@
         <v>8604</v>
       </c>
       <c r="B8604">
-        <v>25.97415347895838</v>
+        <v>25.97415347895837</v>
       </c>
     </row>
     <row r="8605" spans="1:2">
@@ -69183,7 +69183,7 @@
         <v>8605</v>
       </c>
       <c r="B8605">
-        <v>36.02018907771131</v>
+        <v>36.0201890777113</v>
       </c>
     </row>
     <row r="8606" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>53.1375892328045</v>
+        <v>53.13758923280449</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69343,7 +69343,7 @@
         <v>8625</v>
       </c>
       <c r="B8625">
-        <v>6.736355052046487</v>
+        <v>6.736355052046486</v>
       </c>
     </row>
     <row r="8626" spans="1:2">
@@ -69359,7 +69359,7 @@
         <v>8627</v>
       </c>
       <c r="B8627">
-        <v>7.990669790413178</v>
+        <v>7.990669790413177</v>
       </c>
     </row>
     <row r="8628" spans="1:2">
@@ -69375,7 +69375,7 @@
         <v>8629</v>
       </c>
       <c r="B8629">
-        <v>5.902450718639495</v>
+        <v>5.902450718639494</v>
       </c>
     </row>
     <row r="8630" spans="1:2">
@@ -70159,7 +70159,7 @@
         <v>8727</v>
       </c>
       <c r="B8727">
-        <v>12.70052096307833</v>
+        <v>12.70052096307832</v>
       </c>
     </row>
     <row r="8728" spans="1:2">
@@ -70303,7 +70303,7 @@
         <v>8745</v>
       </c>
       <c r="B8745">
-        <v>6.692101325208624</v>
+        <v>6.692101325208623</v>
       </c>
     </row>
     <row r="8746" spans="1:2">
